--- a/artifacts/recipes/new_data/allrecipescom/drinks/drinks_coffee.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/drinks/drinks_coffee.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -103,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ingredients</t>
+          <t>recipe_ingredients</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -127,100 +500,68 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699653536-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699653554-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bAiZwwNXHvptuHsiBH0tLX-98jI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2037381-28e1cbb17bb5426da591ff0b04a2bf7c.jpg"
@@ -233,69 +574,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/92405/chocolate-caramel-latte-syrup/</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chocolate Caramel Latte Syrup</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup heavy cream\n\n\n1 cup light corn syrup\n\n\n½ cup white sugar\n\n\n½ cup packed brown sugar\n\n\n⅛ teaspoon salt\n\n\n8 ounces milk chocolate, chopped\n\n\n¼ cup butter"}]</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup heavy cream\n\n\n1 cup light corn syrup\n\n\n½ cup white sugar\n\n\n½ cup packed brown sugar\n\n\n⅛ teaspoon salt\n\n\n8 ounces milk chocolate, chopped\n\n\n¼ cup butter'}]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a saucepan, stir together the cream, corn syrup, white sugar, brown sugar and salt. Bring to a rolling boil over medium-high heat and continue to boil until it becomes thick and deep brown, 8 to 10 minutes. Remove from the heat and stir in the chocolate and butter until smooth."}]</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"260\nCalories\n\n\n13g \nFat\n\n\n38g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699653561-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hTXx-EdQsxxKB_d2PwSoUomyGyI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1172032-ef4749c216f744e6a644f3aef3597a1e.jpg"
@@ -308,69 +645,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237763/pomegranate-grenadine/</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pomegranate Grenadine</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n32 \n\n\nYield:\n32 servings"}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4 cups pomegranate juice, divided\n\n\n1 cup white sugar"}]</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups pomegranate juice, divided\n\n\n1 cup white sugar'}]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine 3 cups pomegranate juice and sugar together in a saucepan; heat to 244 degrees F (118 degrees C) or until a small amount of mixture dropped into cold water forms a firm ball. Remove saucepan from heat and cover with a lid; let cool until pan is cool enough to touch. Stir remaining 1 cup pomegranate juice into mixture. Refrigerate."}]</t>
         </is>
       </c>
-      <c r="L4" s="1" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"44\nCalories\n\n\n11g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699653569-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -384,69 +717,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245564/cranberry-simple-syrup/</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cranberry Simple Syrup</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup white sugar\n\n\n1 cup water\n\n\n2 ½ cups fresh cranberries"}]</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n1 cup water\n\n\n2 ½ cups fresh cranberries'}]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve sugar in water in a saucepan over medium heat. Add cranberries and simmer on low until cranberries have softened but before they begin to pop, about 15 minutes. Cool, strain, and refrigerate."}]</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"55\nCalories\n\n\n14g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699653580-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UCsjaDQmrgCeYWahopMPfiHpJ4E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1617282-5f1a978fa5d7480d942b92b8029ad0fa.jpg"
@@ -459,69 +788,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235534/pumpkin-spice-syrup/</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pumpkin Spice Syrup</t>
         </is>
       </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n24 \n\n\nYield:\n3 cups syrup"}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup light corn syrup\n\n\n1 cup water\n\n\n½ cup brown sugar\n\n\n½ cup butter\n\n\n⅓ cup pumpkin puree\n\n\n1 teaspoon ground ginger\n\n\n1 teaspoon ground nutmeg\n\n\n1 teaspoon ground allspice\n\n\n1 teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup light corn syrup\n\n\n1 cup water\n\n\n½ cup brown sugar\n\n\n½ cup butter\n\n\n⅓ cup pumpkin puree\n\n\n1 teaspoon ground ginger\n\n\n1 teaspoon ground nutmeg\n\n\n1 teaspoon ground allspice\n\n\n1 teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring corn syrup, water, brown sugar, and butter to a rolling boil. Whisk pumpkin, ginger, nutmeg, allspice, and cinnamon into corn syrup mixture; cook, stirring constantly, until flavors blend, 5 to 10 minutes. Serve hot."}]</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M6" s="1" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"93\nCalories\n\n\n4g \nFat\n\n\n16g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699653589-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HohoTHvauRB8JJ0Y0bOluZ28LjE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/1646017794IMG_0449203-2000-8f1d910cc21140d5a4b2600f5dadbaa2.jpg"
@@ -533,69 +858,65 @@
 Blueberry-Lavender Simple Syrup</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8355220/blueberry-lavender-simple-syrup/</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Blueberry-Lavender Simple Syrup</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nCool Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup water\n\n\n1 cup frozen blueberries\n\n\n¾ cup sugar\n\n\n¼ cup honey\n\n\n1 ½ tablespoons dried lavender buds"}]</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n1 cup frozen blueberries\n\n\n¾ cup sugar\n\n\n¼ cup honey\n\n\n1 ½ tablespoons dried lavender buds'}]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine water, blueberries, sugar, and honey in a saucepan over medium-high heat. Bring to a boil, then reduce temperature to a light simmer. Add in lavender, stir to combine, and simmer for 10 minutes."},{"recipe_directions":"Let mixture cool for 10 minutes, then strain into a jar using a fine mesh strainer. Use the back of a spoon to mash the berries through the strainer to release juices. Refrigerate for up to 1 month."}]</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"},{"recipe_tags":"Drink Flavorings"}]</t>
         </is>
       </c>
-      <c r="M7" s="1" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"58\nCalories\n\n\n15g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699653594-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Vy7MjHLMJM24jmzrcQiSVzQiChY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Ginger-Syrup-1x1-1-2000-bcb52b245e464170b237fe2bba34aaa7.jpg"
@@ -609,69 +930,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280251/ginger-syrup/</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ginger Syrup</t>
         </is>
       </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n32 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups water\n\n\n1 cup white sugar\n\n\n¼ cup coarsely chopped unpeeled fresh ginger\n\n\n2 tablespoons freshly squeezed lemon juice\n\n\n½ teaspoon whole black peppercorns"}]</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups water\n\n\n1 cup white sugar\n\n\n¼ cup coarsely chopped unpeeled fresh ginger\n\n\n2 tablespoons freshly squeezed lemon juice\n\n\n½ teaspoon whole black peppercorns'}]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together water, sugar, ginger, lemon juice, and peppercorns in a saucepan. Bring to a boil; reduce heat and simmer, stirring frequently, until sugar dissolves. Let cool, 15 to 30 minutes."},{"recipe_directions":"Strain syrup through a fine-mesh sieve; discard solids. Chill, covered, for up to 2 weeks."}]</t>
         </is>
       </c>
-      <c r="L8" s="1" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M8" s="1" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"25\nCalories\n\n\n7g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699653600-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5WbMdkh8pm-noyz1GvMepnGpTk8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1521x0:1523x2):format(webp)/4574288-02fdfc6b50da438fa3d984c46fd763ea.jpg"
@@ -684,69 +1001,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217210/homemade-grenadine/</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Homemade Grenadine</t>
         </is>
       </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n1 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n11 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup white sugar\n\n\n½ cup pomegranate juice"}]</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n½ cup pomegranate juice'}]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour sugar and pomegranate juice into a sauce pan and warm over low heat, whisking continuously until the sugar dissolves. Cool, pour into a bottle or jar, and store sealed in the refrigerator."}]</t>
         </is>
       </c>
-      <c r="L9" s="1" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M9" s="1" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"71\nCalories\n\n\n18g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699653605-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4kRZvCaFjc0QgHaYRNEdMe2lf2I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7012817-cfe7b0243691451b87597ee6bb2599b4.jpg"
@@ -759,69 +1072,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214915/vanilla-honey-simple-syrup/</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Vanilla Honey Simple Syrup</t>
         </is>
       </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n1 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n11 mins\n\n\nServings:\n1 \n\n\nYield:\n3 tablespoons"}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 teaspoons milk\n\n\n2 teaspoons vanilla extract\n\n\n1 tablespoon honey\n\n\n2 teaspoons butter"}]</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons milk\n\n\n2 teaspoons vanilla extract\n\n\n1 tablespoon honey\n\n\n2 teaspoons butter'}]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine milk and vanilla extract in a bowl."},{"recipe_directions":"Heat honey and butter together in a microwave-safe bowl in the microwave for 30 seconds; stir into milk mixture."},{"recipe_directions":"Allow to cool completely before use. Chill in the refrigerator if too hot."}]</t>
         </is>
       </c>
-      <c r="L10" s="1" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M10" s="1" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"161\nCalories\n\n\n8g \nFat\n\n\n18g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699653610-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9JvO2-qN6vj4Wc7BxXD6-zN3B_E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1400657-1ada93435ca341b9b55023a72fbbd1cc.jpg"
@@ -834,69 +1143,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239067/pumpkin-spice-coffee-syrup/</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Pumpkin Spice Coffee Syrup</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups water\n\n\n1 ½ cups white sugar\n\n\n8 tablespoons pumpkin pie filling, divided\n\n\n4  cinnamon sticks\n\n\n4 teaspoons freshly grated nutmeg\n\n\n2 teaspoons minced fresh ginger\n\n\n2 teaspoons whole cloves\n\n\n2 teaspoons vanilla extract\n\n\n½ teaspoon pumpkin pie spice\n\n\n¼ cup sweetened condensed milk"}]</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups water\n\n\n1 ½ cups white sugar\n\n\n8 tablespoons pumpkin pie filling, divided\n\n\n4  cinnamon sticks\n\n\n4 teaspoons freshly grated nutmeg\n\n\n2 teaspoons minced fresh ginger\n\n\n2 teaspoons whole cloves\n\n\n2 teaspoons vanilla extract\n\n\n½ teaspoon pumpkin pie spice\n\n\n¼ cup sweetened condensed milk'}]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix water and sugar together in a saucepan; bring to a boil. Reduce the heat to medium-low and cook, stirring regularly, until sugar is completely dissolved completely, about 5 minutes."},{"recipe_directions":"Stir 6 tablespoons pumpkin pie filling, cinnamon sticks, nutmeg, ginger, cloves, vanilla, and pumpkin pie spice into the sugar syrup; bring to a simmer. Cook until mixture is well spiced, 8 to 10 minutes."},{"recipe_directions":"Strain mixture through a sheet of cheesecloth into a bowl. Return liquid to the saucepan over low heat."},{"recipe_directions":"Stir condensed milk and remaining 2 tablespoons pumpkin pie filling into the spiced syrup. Cook, stirring regularly, until pumpkin dissolves into the liquid, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="L11" s="1" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M11" s="1" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"105\nCalories\n\n\n1g \nFat\n\n\n25g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699653616-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gLr4zLzmsTQ_2_16G4OjCVsLll0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/970383-4b5f0141a841486ca63045fa130c5af4.jpg"
@@ -909,69 +1214,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229481/simple-syrup-with-truvia-natural-sweetener/</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Simple Syrup with Truvia® Natural Sweetener</t>
         </is>
       </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 ½ tablespoons Truvia® natural sweetener spoonable*\n\n\n½ cup warm water"}]</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 ½ tablespoons Truvia® natural sweetener spoonable*\n\n\n½ cup warm water'}]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Add Truvia® natural sweetener to 1/2 cup of warm water."},{"recipe_directions":"Shake or blend until dissolved completely."},{"recipe_directions":"Store refrigerated. For best results, use within a day of making."}]</t>
         </is>
       </c>
-      <c r="L12" s="1" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="M12" s="1" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699653623-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BCVAwHBbpQ4XhDOqSNoHkWE8YhI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3628013-90b1aaf011774513a272461be5f0303c.jpg"
@@ -984,69 +1285,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/247476/lemon-verbena-simple-syrup/</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Lemon Verbena Simple Syrup</t>
         </is>
       </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup water\n\n\n1 cup white sugar\n\n\n¼ cup fresh lemon verbena leaves"}]</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n1 cup white sugar\n\n\n¼ cup fresh lemon verbena leaves'}]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine water, sugar, and lemon verbena leaves in a small saucepan. Bring to a boil, stirring until sugar dissolves. Simmer for 1 minute. Remove from the heat and let syrup steep for 30 minutes."},{"recipe_directions":"Pour syrup through a mesh strainer into a sterilized glass jar to remove lemon verbena leaves; let cool."}]</t>
         </is>
       </c>
-      <c r="L13" s="1" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M13" s="1" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"98\nCalories\n\n\n25g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699653631-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ETRhtGOxkKXWfptOr_CYZ4zB5Jk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1128171-1c4a517f6d464eb88acc308d81e9cf73.jpg"
@@ -1059,69 +1356,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24970/brandy-simple-syrup/</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Brandy Simple Syrup</t>
         </is>
       </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n24 \n\n\nYield:\n2 to 2 cups syrup cakes"}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups water\n\n\n1 cup white sugar\n\n\n½ teaspoon grated lemon zest\n\n\n¼ cup brandy"}]</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n1 cup white sugar\n\n\n½ teaspoon grated lemon zest\n\n\n¼ cup brandy'}]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a saucepan, combine water, sugar and lemon zest. Bring mixture to a boil and continue boiling for 5 minutes. Strain into a sealable container, removing the lemon zest. Allow to cool, then cover and store in refrigerator."},{"recipe_directions":"When ready to use, mix in brandy. Brush onto cake layers before frosting."}]</t>
         </is>
       </c>
-      <c r="L14" s="1" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M14" s="1" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"40\nCalories\n\n\n8g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699653637-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/w7OkjlbJFjKYW3jZO9fJ1jDizV0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x179:481x181):format(webp)/1938404-habanero-simple-syrup-Terry-Goff-Tripp-4x3-1-a145616c88134b8ba4da0d60afe032e4.jpg"
@@ -1135,69 +1428,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240050/habanero-simple-syrup/</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Habanero Simple Syrup</t>
         </is>
       </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n16 \n\n\nYield:\n8 fluid ounces"}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup water\n\n\n1 cup white sugar\n\n\n2  habanero peppers, quartered"}]</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n1 cup white sugar\n\n\n2  habanero peppers, quartered'}]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water to a boil in a saucepan. Slowly stir sugar into boiling water until sugar is dissolved, 2 to 3 minutes. Add habanero peppers to sugar-water mixture, reduce heat to medium-low, and simmer until syrup is thickened and pepper has slightly colored the syrup, about 15 minutes."},{"recipe_directions":"Remove saucepan from heat and let syrup cool, about 1 hour. Remove peppers from syrup and store syrup in a glass jar."}]</t>
         </is>
       </c>
-      <c r="L15" s="1" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M15" s="1" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"49\nCalories\n\n\n13g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699653646-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-wsQMvbhrSZLew-ZbOw7g-tFdYA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(499x0:501x2):format(webp)/8462789-coffee-syrup-Uzo-Orimalade-4x3-1-7c5f70d153b8442e887abef5d6b1ad02.jpg"
@@ -1209,69 +1498,65 @@
 Coffee Syrup</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281361/coffee-syrup/</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Coffee Syrup</t>
         </is>
       </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup white sugar\n\n\n1 cup water\n\n\n3 tablespoons ground coffee"}]</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n1 cup water\n\n\n3 tablespoons ground coffee'}]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine sugar, water, and ground coffee in a pot over medium heat. Cook, stirring often, until sugar dissolves and mixture comes to a rolling boil, about 10 minutes. Reduce heat to low and cook, stirring occasionally, for 10 minutes."},{"recipe_directions":"Remove from heat and let cool, about 30 minutes."},{"recipe_directions":"Place a fine sieve on top of a lidded container and pour syrup through to strain out any coffee grinds if desired. Cover with lid and store in the refrigerator."}]</t>
         </is>
       </c>
-      <c r="L16" s="1" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M16" s="1" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"196\nCalories\n\n\n50g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699653657-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1-UYdYnPZacITT6OjpdOn8l7sdg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3583477-e1f46a9ca0844e24b0357323733f2f37.jpg"
@@ -1284,69 +1569,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/247192/hibiscus-syrup/</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Hibiscus Syrup</t>
         </is>
       </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n12 \n\n\nYield:\n1 1/2 cups"}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups water\n\n\n½ cup white sugar\n\n\n⅓ cup dried hibiscus flowers\n\n\n¼ cup brown sugar\n\n\n1 (1/2 inch) piece fresh ginger root, thinly sliced\n\n\n1  lemon, zested"}]</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n½ cup white sugar\n\n\n⅓ cup dried hibiscus flowers\n\n\n¼ cup brown sugar\n\n\n1 (1/2 inch) piece fresh ginger root, thinly sliced\n\n\n1  lemon, zested'}]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water, white sugar, hibiscus, brown sugar, ginger, and lemon zest to a boil. Reduce heat and let simmer until sugars dissolve and flowers soften, about 10 minutes. Remove from heat and steep syrup until flavors combine, about 5 minutes."},{"recipe_directions":"Strain syrup into a container through a fine-mesh strainer, pressing solids with a spoon to extract as much liquid as possible. Discard solids."},{"recipe_directions":"Store syrup in the refrigerator for up to 2 weeks."}]</t>
         </is>
       </c>
-      <c r="L17" s="1" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M17" s="1" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"44\nCalories\n\n\n11g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699653664-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0bPbVN27w6ea44JGT6HT6SQjW2k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2997300-4f23b775bbd34e5f8b38560f61d1557f.jpg"
@@ -1359,69 +1640,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245644/peppermint-coffee-syrup/</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Peppermint Coffee Syrup</t>
         </is>
       </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n30 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup water\n\n\n1 cup white sugar\n\n\n1 teaspoon peppermint extract"}]</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n1 cup white sugar\n\n\n1 teaspoon peppermint extract'}]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and sugar to a boil in a saucepan. Reduce heat to medium; stir 4 to 5 minutes. Add peppermint extract and remove from heat. Cool syrup for 5 minutes; pour into glass jar with tight-fitting lid."}]</t>
         </is>
       </c>
-      <c r="L18" s="1" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M18" s="1" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"26\nCalories\n\n\n7g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699653673-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gvJ53YkgWWyMdyn0IIN0WqVC08g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/745452-f312bc8d17dc4831807886705596866a.jpg"
@@ -1434,69 +1711,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/56726/billys-favorite-gingerbread-spiced-coffee-syrup/</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Billy's Favorite Gingerbread Spiced Coffee Syrup</t>
         </is>
       </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n2 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n52 mins\n\n\nServings:\n16 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup water\n\n\n1 cup sugar\n\n\n1 tablespoon honey\n\n\n1 (1 inch) piece fresh ginger root, sliced\n\n\n1  cinnamon stick, broken into large pieces\n\n\n8  whole cloves\n\n\n½ teaspoon whole allspice berries\n\n\n½ teaspoon whole peppercorns\n\n\n½ teaspoon ground nutmeg"}]</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n1 cup sugar\n\n\n1 tablespoon honey\n\n\n1 (1 inch) piece fresh ginger root, sliced\n\n\n1  cinnamon stick, broken into large pieces\n\n\n8  whole cloves\n\n\n½ teaspoon whole allspice berries\n\n\n½ teaspoon whole peppercorns\n\n\n½ teaspoon ground nutmeg'}]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a saucepan over medium-high heat, combine water, sugar, and honey. Stir in ginger, cinnamon stick, cloves, allspice, peppercorns, and nutmeg; bring to a boil. Reduce heat, cover, and simmer for 25 to 30 minutes. Let cool for 20 minutes, then strain through a fine mesh sieve, or double layer cheesecloth."}]</t>
         </is>
       </c>
-      <c r="L19" s="1" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M19" s="1" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"56\nCalories\n\n\n0g \nFat\n\n\n14g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699653681-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3cZF-_xlAbleIIYOVvi4MK984mI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1068094-1653f249bde24921a15f92a3b9963a6c.jpg"
@@ -1509,69 +1782,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235461/cinnamon-dolce-latte-syrup/</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Cinnamon Dolce Latte Syrup</t>
         </is>
       </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup water\n\n\n¾ cup packed light brown sugar\n\n\n¼ cup white sugar\n\n\n1 teaspoon ground cinnamon\n\n\n1 tablespoon pure vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n¾ cup packed light brown sugar\n\n\n¼ cup white sugar\n\n\n1 teaspoon ground cinnamon\n\n\n1 tablespoon pure vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place a saucepan over medium-high heat; add water, brown sugar, and white sugar. Whisk until sugar dissolves, 3 to 5 minutes. Whisk cinnamon into sugar mixture until incorporated. Continue whisking mixture until just before boiling and syrup-consistency, 3 to 5 more minutes. Remove saucepan from heat and stir in vanilla extract."},{"recipe_directions":"Cool syrup completely, at least 1 hour. Pour syrup into a glass container and seal; store in refrigerator for up to 10 days."}]</t>
         </is>
       </c>
-      <c r="L20" s="1" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M20" s="1" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"108\nCalories\n\n\n27g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699653686-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dAXehH5n4fs2KEyy9GFAbML3GwA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3628018-ac81e1152ff741daa01472cb810fb973.jpg"
@@ -1584,69 +1853,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/247474/basil-simple-syrup/</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Basil Simple Syrup</t>
         </is>
       </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup water\n\n\n1 cup white sugar\n\n\n1 cup fresh basil leaves"}]</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n1 cup white sugar\n\n\n1 cup fresh basil leaves'}]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine water, sugar, and basil leaves in a small saucepan. Bring to a boil, stirring until sugar dissolves. Reduce heat and simmer for 1 minute. Remove from heat and let syrup steep for 30 minutes."},{"recipe_directions":"Drain syrup through a mesh strainer into a sterilized glass jar; discard basil leaves. Let cool, then cover and store in the refrigerator for up to 1 month."}]</t>
         </is>
       </c>
-      <c r="L21" s="1" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M21" s="1" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"98\nCalories\n\n\n25g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699653691-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LezqXZeGSop6GA0RTounwlQbr9k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2323063-313c82bdcef54c8399478e2724b57dc9.jpg"
@@ -1659,69 +1924,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235283/raspberry-syrup-for-drinks/</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Raspberry Syrup for Drinks</t>
         </is>
       </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n15"}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"⅔ cup water\n\n\n⅔ cup white sugar\n\n\n1 cup raspberries"}]</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup water\n\n\n⅔ cup white sugar\n\n\n1 cup raspberries'}]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and sugar to a boil in a small saucepan, stirring occasionally, until sugar is dissolved, 5 to 10 minutes. Remove from heat, stir in raspberries, and mash with a potato masher or fork. Let steep for at least 1 hour."},{"recipe_directions":"Drain mixture through a fine mesh strainer, pressing raspberry pulp with a spatula to extract as much liquid as possible. Discard solids and store syrup in a sealed container in the refrigerator."}]</t>
         </is>
       </c>
-      <c r="L22" s="1" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M22" s="1" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"38\nCalories\n\n\n10g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699653696-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Drink Flavoring &amp; Simple Syrups</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/22504/side-dish/sauces-and-condiments/syrups/drink-flavorings/</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7441Lq9NVdgwhi1tdOIhIarQnCU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3628017-c54ddf6a25fe471d8c412d6431bef985.jpg"
@@ -1734,136 +1995,104 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/247475/rosemary-simple-syrup/</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Rosemary Simple Syrup</t>
         </is>
       </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup water\n\n\n1 cup white sugar\n\n\n¼ cup rosemary leaves"}]</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n1 cup white sugar\n\n\n¼ cup rosemary leaves'}]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine water, sugar, and rosemary leaves in a small saucepan. Bring to a boil, stirring until sugar dissolves. Simmer for 1 minute. Remove from heat and let syrup steep for 30 minutes."},{"recipe_directions":"Pour syrup into a sterilized glass jar through a mesh strainer to remove rosemary leaves; let cool."}]</t>
         </is>
       </c>
-      <c r="L23" s="1" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Syrup Recipes"}]</t>
         </is>
       </c>
-      <c r="M23" s="1" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"98\nCalories\n\n\n25g \nCarbs"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699653703-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699653710-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -1875,69 +2104,65 @@
 Homemade Vanilla-Flavored Coffee Creamer</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281769/homemade-vanilla-flavored-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Homemade Vanilla-Flavored Coffee Creamer</t>
         </is>
       </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n24 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (14 ounce) can sweetened condensed milk\n\n\n1 ½ cups nonfat milk\n\n\n2 teaspoons vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14 ounce) can sweetened condensed milk\n\n\n1 ½ cups nonfat milk\n\n\n2 teaspoons vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk condensed milk, nonfat milk, and vanilla extract together in a bowl (or use a blender) until well combined."}]</t>
         </is>
       </c>
-      <c r="L25" s="1" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M25" s="1" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"59\nCalories\n\n\n1g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699653718-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/v0j9B5xp4f_cPNqjTod3HkCWC_w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1399x0:1401x2):format(webp)/sugar-free-white-mocha-creamer-1e4cb017e7cd4c35975656c0dc40a640.png"
@@ -1949,69 +2174,65 @@
 International Delight Unveils a Sugar-Free White Chocolate Mocha Creamer</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/international-delight-zero-sugar-white-chocolate-mocha/</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>International Delight Unveils a Sugar-Free White Chocolate Mocha Creamer</t>
         </is>
       </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="L26" s="1" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Food News and Trends"}]</t>
         </is>
       </c>
-      <c r="M26" s="1" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699653726-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7iQ6RqfqWRK1sSF-i75cDNuyyMc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Chocolate-Peppermint-Coffee-Creamer-Tammy-Lynn-2000-22c1f7f8ceb544e581793e34a2ecfd90.jpg"
@@ -2025,69 +2246,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281774/chocolate-peppermint-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Chocolate-Peppermint Coffee Creamer</t>
         </is>
       </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¾ cup powdered non-dairy coffee creamer\n\n\n¾ cup confectioners' sugar\n\n\n½ cup unsweetened cocoa powder\n\n\n½ teaspoon peppermint extract"}]</t>
-        </is>
-      </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "¾ cup powdered non-dairy coffee creamer\n\n\n¾ cup confectioners' sugar\n\n\n½ cup unsweetened cocoa powder\n\n\n½ teaspoon peppermint extract"}]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine coffee creamer, confectioners' sugar, and cocoa powder in the bowl of a food processor; pulse until blended. Pour peppermint extract in slowly, with the processor running, until evenly distributed."},{"recipe_directions":"Transfer into small jars and seal with lids. Attach instructions that say \"Add 2 tablespoons to a cup of hot coffee, hot chocolate, or steamed milk.\""}]</t>
         </is>
       </c>
-      <c r="L27" s="1" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M27" s="1" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"71\nCalories\n\n\n3g \nFat\n\n\n13g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699653733-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZVcDlAK8DLxBwo4d9RaJzI4mfjo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1085x0:1087x2):format(webp)/8858874-4c0cad35402c47889a94505295305425.jpg"
@@ -2098,69 +2315,65 @@
 Peppermint Coffee Creamer</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282790/peppermint-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Peppermint Coffee Creamer</t>
         </is>
       </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¾ cup milk\n\n\n¼ cup heavy whipping cream\n\n\n2 tablespoons stevia powder, or to taste\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon peppermint extract, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup milk\n\n\n¼ cup heavy whipping cream\n\n\n2 tablespoons stevia powder, or to taste\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon peppermint extract, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine milk, whipping cream, and stevia in a saucepan over medium-low heat. Heat until bubbles start to appear on the outer edges of the saucepan, 5 to 7 minutes; do not boil. Remove from the heat and stir in vanilla and peppermint extracts."}]</t>
         </is>
       </c>
-      <c r="L28" s="1" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M28" s="1" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"42\nCalories\n\n\n3g \nFat\n\n\n4g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699653738-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/u7ZMvILAbWRAjBJ6gWAiGfw_zIo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/7840809-7e3c8896970c4d6ca326be7bab076370.jpg"
@@ -2173,69 +2386,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275881/homemade-vanilla-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Homemade Vanilla Coffee Creamer</t>
         </is>
       </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Cook Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n20 \n\n\nYield:\n20 servings"}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 pint fat-free half-and-half\n\n\n1 (14 ounce) can fat-free sweetened condensed milk\n\n\n1 teaspoon cinnamon\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pint fat-free half-and-half\n\n\n1 (14 ounce) can fat-free sweetened condensed milk\n\n\n1 teaspoon cinnamon\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine half-and-half and condensed milk in a small pot over medium-low heat; warm until steaming. Add cinnamon and vanilla extract. Heat for 5 more minutes, being careful not to boil."},{"recipe_directions":"Remove from heat and let stand for 5 minutes. Pour in a glass container and store in the refrigerator for up to 10 days."}]</t>
         </is>
       </c>
-      <c r="L29" s="1" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M29" s="1" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"71\nCalories\n\n\n0g \nFat\n\n\n14g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699653743-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PWGDJ43GbirDuiLCiQp14pHOWWM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(959x0:961x2):format(webp)/8800146-a645486403f6450da41643e5f6ee0cb9.jpg"
@@ -2246,69 +2455,65 @@
 Vegan Sugar-Free Coconut Coffee Creamer</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282306/vegan-sugar-free-coconut-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Vegan Sugar-Free Coconut Coffee Creamer</t>
         </is>
       </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n32 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (13.5 ounce) can light coconut milk\n\n\n½ cup unsweetened coconut milk beverage (such as Silk®)\n\n\n¼ cup erythritol confectioners' sweetener (such as Swerve®)\n\n\n2 tablespoons sugar-free coconut-flavored syrup (such as Torani®)\n\n\n1 teaspoon coconut extract"}]</t>
-        </is>
-      </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 (13.5 ounce) can light coconut milk\n\n\n½ cup unsweetened coconut milk beverage (such as Silk®)\n\n\n¼ cup erythritol confectioners' sweetener (such as Swerve®)\n\n\n2 tablespoons sugar-free coconut-flavored syrup (such as Torani®)\n\n\n1 teaspoon coconut extract"}]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine coconut milk, coconut milk beverage, sweetener, coconut syrup, and coconut extract in a large Mason jar with a lid. Shake to combine ingredients."}]</t>
         </is>
       </c>
-      <c r="L30" s="1" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M30" s="1" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"13\nCalories\n\n\n1g \nFat\n\n\n2g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699653748-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -2320,69 +2525,65 @@
 Homemade Peppermint Coffee Creamer</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282791/homemade-peppermint-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Homemade Peppermint Coffee Creamer</t>
         </is>
       </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n24 \n\n\nYield:\n24 servings"}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups half-and-half\n\n\n1 ½ cups milk\n\n\n⅓ cup white sugar\n\n\n1 tablespoon vanilla extract\n\n\n1 ½ teaspoons peppermint extract"}]</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups half-and-half\n\n\n1 ½ cups milk\n\n\n⅓ cup white sugar\n\n\n1 tablespoon vanilla extract\n\n\n1 ½ teaspoons peppermint extract'}]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine half-and-half and milk in a saucepan over medium heat. Heat until steaming, about 10 minutes; do not bring to a boil."},{"recipe_directions":"Stir in sugar. Heat until sugar has dissolved, about 2 more minutes. Remove from the heat and stir in vanilla and peppermint extracts."}]</t>
         </is>
       </c>
-      <c r="L31" s="1" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M31" s="1" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"40\nCalories\n\n\n2g \nFat\n\n\n4g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699653753-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jZE3_ARLYqWuWVE-uWVt3ZiQJPc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(970x0:972x2):format(webp)/8943733-c62ec471165b41f2a2f0aede64174f9b.jpg"
@@ -2395,69 +2596,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281772/homemade-caramel-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Homemade Caramel Coffee Creamer</t>
         </is>
       </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n20 \n\n\nYield:\n20 servings"}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¼ cup unsalted butter\n\n\n2 ½ cups half-and-half\n\n\n½ cup brown sugar\n\n\n1 tablespoon dark corn syrup (such as Karo®)\n\n\n2 teaspoons vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup unsalted butter\n\n\n2 ½ cups half-and-half\n\n\n½ cup brown sugar\n\n\n1 tablespoon dark corn syrup (such as Karo®)\n\n\n2 teaspoons vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a saucepan over medium heat. Stir in 1/2 cup half-and-half, brown sugar, and corn syrup; bring to a boil. Boil, without stirring, until a small amount of syrup dropped into cold water forms a soft ball that flattens when removed from water and placed on a flat surface, about 5 minutes. Stir in remaining half-and-half and vanilla extract."}]</t>
         </is>
       </c>
-      <c r="L32" s="1" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"}]</t>
         </is>
       </c>
-      <c r="M32" s="1" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"85\nCalories\n\n\n6g \nFat\n\n\n8g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699653759-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jPPBjMz7HeH3kfIMv3YCzM5e67c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1218x0:1220x2):format(webp)/8622641-d1cfa1a8fba4449ca235f3957da0d68b.jpg"
@@ -2468,69 +2665,65 @@
 Sugar-Free Pumpkin Spice Coffee Creamer</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281933/sugar-free-pumpkin-spice-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Sugar-Free Pumpkin Spice Coffee Creamer</t>
         </is>
       </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups half-and-half\n\n\n¼ cup pumpkin puree\n\n\n2 tablespoons brown sugar substitute (such as Swerve®)\n\n\n2 tablespoons sugar-free pumpkin flavored syrup (such as Torani®)\n\n\n2 teaspoons pumpkin spice"}]</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups half-and-half\n\n\n¼ cup pumpkin puree\n\n\n2 tablespoons brown sugar substitute (such as Swerve®)\n\n\n2 tablespoons sugar-free pumpkin flavored syrup (such as Torani®)\n\n\n2 teaspoons pumpkin spice'}]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine half-and-half, pumpkin, brown sugar substitute, syrup, and pumpkin spice in a saucepan. Stir to combine and heat over medium heat, stirring constantly, until thoroughly warmed, 6 to 7 minutes. Do not boil."}]</t>
         </is>
       </c>
-      <c r="L33" s="1" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M33" s="1" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"32\nCalories\n\n\n3g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699653768-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WhDA9CZaGM-JxLYo43xV_FzVB9s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1134x0:1136x2):format(webp)/8632277-486545d2631f439fb0d4827439df9c94.jpg"
@@ -2543,69 +2736,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281768/homemade-cinnamon-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Homemade Cinnamon Coffee Creamer</t>
         </is>
       </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n24 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (14 ounce) can fat-free sweetened condensed milk\n\n\n1 ½ cups unsweetened plain almond milk\n\n\n2 teaspoons ground cinnamon\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon almond extract"}]</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14 ounce) can fat-free sweetened condensed milk\n\n\n1 ½ cups unsweetened plain almond milk\n\n\n2 teaspoons ground cinnamon\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon almond extract'}]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix condensed milk, almond milk, cinnamon, vanilla extract, and almond extract together until well blended."}]</t>
         </is>
       </c>
-      <c r="L34" s="1" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M34" s="1" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"52\nCalories\n\n\n0g \nFat\n\n\n11g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699653772-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DV3iQepMruLYTMDy_y-cLHP2nD0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Coffe-Mate-Brown-Butter-Chocolate-Chip-Cookie-Site-2000-de6038ba52664e999a968461e87e4e24.jpg"
@@ -2617,69 +2806,65 @@
 A New Seasonal Coffee Creamer Will Make Autumn Mornings Extra Cozy</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/new-coffee-mate-brown-butter-cookie-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>A New Seasonal Coffee Creamer Will Make Autumn Mornings Extra Cozy</t>
         </is>
       </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="L35" s="1" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Food News and Trends"}]</t>
         </is>
       </c>
-      <c r="M35" s="1" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699653778-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/X2XuhLqzmIdjfskFNkYfyw4ZF1E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8631176-baf6bc8dd82b401e8eeb618c6e056a14.jpg"
@@ -2692,69 +2877,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281766/coconut-milk-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Coconut Milk Coffee Creamer</t>
         </is>
       </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (14 ounce) can unsweetened coconut milk\n\n\n2 tablespoons pure maple syrup\n\n\n2 tablespoons vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14 ounce) can unsweetened coconut milk\n\n\n2 tablespoons pure maple syrup\n\n\n2 tablespoons vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Put coconut milk, syrup, and vanilla extract in a glass jar with a lid. Shake to mix."}]</t>
         </is>
       </c>
-      <c r="L36" s="1" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M36" s="1" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"79\nCalories\n\n\n7g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699653784-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/H916IUT8PFPQrKqhQN3Iz_IDF3U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1039932-2a71a7caf77c40efa4eadbe4e272fa69.jpg"
@@ -2767,69 +2948,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233504/coffee-creamer/</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Coffee Creamer</t>
         </is>
       </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n22 \n\n\nYield:\n2 2/3 cup"}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup powdered milk\n\n\n⅔ cup white sugar\n\n\n⅓ cup boiling water\n\n\n1 tablespoon vanilla extract\n\n\n⅔ cup milk, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup powdered milk\n\n\n⅔ cup white sugar\n\n\n⅓ cup boiling water\n\n\n1 tablespoon vanilla extract\n\n\n⅔ cup milk, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine powdered milk, sugar, boiling water, and vanilla extract in a blender and blend until smooth; add milk. Transfer creamer to a container with a tight seal and keep refrigerated."}]</t>
         </is>
       </c>
-      <c r="L37" s="1" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M37" s="1" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"58\nCalories\n\n\n2g \nFat\n\n\n9g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699653789-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Kr-pWifpjVeUffGE-Swgl-1-MyY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3592978-6e14ec51c76f4d5384f89061969d0595.jpg"
@@ -2842,69 +3019,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232000/coconut-cream-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Coconut Cream Coffee Creamer</t>
         </is>
       </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n14 \n\n\nYield:\n14 servings"}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup heavy whipping cream\n\n\n1 cup milk\n\n\n¾ cup white sugar\n\n\n2 teaspoons coconut extract\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup heavy whipping cream\n\n\n1 cup milk\n\n\n¾ cup white sugar\n\n\n2 teaspoons coconut extract\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine cream, milk, and sugar in a small pot over low heat until steam appears, 5 to 10 minutes. Remove from heat and stir in coconut and vanilla extracts. Cool and store in a sealed container in the refrigerator."}]</t>
         </is>
       </c>
-      <c r="L38" s="1" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M38" s="1" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"111\nCalories\n\n\n7g \nFat\n\n\n12g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699653795-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pI2d3H_IgzIBNK09immAtMhsV9U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1214x0:1216x2):format(webp)/8651941-52a834bb4e6540a7a6fd1666e0f596df.jpg"
@@ -2917,69 +3090,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281771/fat-free-vanilla-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Fat-Free Vanilla Coffee Creamer</t>
         </is>
       </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ (12 fluid ounce) can fat-free evaporated milk\n\n\n1 teaspoon pure vanilla extract\n\n\n1 tablespoon granular sucrolose sweetener (such as Splenda®), or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ (12 fluid ounce) can fat-free evaporated milk\n\n\n1 teaspoon pure vanilla extract\n\n\n1 tablespoon granular sucrolose sweetener (such as Splenda®), or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour evaporated milk into a small saucepan; add vanilla extract. Stir in sweetener. Bring to a boil, stirring constantly, to allow alcohol in extract to cook off, 1 to 2 minutes. Remove from the burner and let cool before using, or place in an airtight container and refrigerate."}]</t>
         </is>
       </c>
-      <c r="L39" s="1" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M39" s="1" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"15\nCalories\n\n\n2g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699653800-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-8nrhnqL8Nn13gLaYEO4Yt_wsqk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1919x0:1921x2):format(webp)/5024889-9cc31b78cfb047788e72f7a456530aab.jpg"
@@ -2992,69 +3161,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262370/amaretto-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Amaretto Coffee Creamer</t>
         </is>
       </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n52 \n\n\nYield:\n3 1/4 cups"}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (14 ounce) can sweetened condensed milk\n\n\n1 ½ cups nonfat milk\n\n\n1 teaspoon almond extract\n\n\n½ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14 ounce) can sweetened condensed milk\n\n\n1 ½ cups nonfat milk\n\n\n1 teaspoon almond extract\n\n\n½ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine condensed milk, nonfat milk, almond extract, and cinnamon in a glass Mason jar; cover and shake well. Store in the refrigerator for up to 2 weeks. Shake before using, as condensed milk will settle to the bottom."}]</t>
         </is>
       </c>
-      <c r="L40" s="1" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M40" s="1" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"27\nCalories\n\n\n1g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699653805-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KUSEpRzkucf1-f78HapzqMZ6Z78=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(413x0:415x2):format(webp)/Screen-Shot-2021-01-20-at-8.16.04-PM-2625c8953a32477bbd8429341df0acbc.png"
@@ -3066,69 +3231,65 @@
 10 Homemade Coffee Creamer Recipes</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/homemade-coffee-creamer-recipes/</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>10 Homemade Coffee Creamer Recipes</t>
         </is>
       </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="L41" s="1" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"}]</t>
         </is>
       </c>
-      <c r="M41" s="1" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699653811-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Creamer</t>
         </is>
       </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/8181009/creamer/</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xsW-RmBxyCyG-FzO3oRAHq6uqZo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1501784-c5c7e1008b014b00baaaaf8d75267970.jpg"
@@ -3141,136 +3302,104 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239075/vanilla-coffee-creamer/</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Vanilla Coffee Creamer</t>
         </is>
       </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n30 \n\n\nYield:\n30 servings"}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups half-and-half\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n2 teaspoons vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups half-and-half\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n2 teaspoons vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine half-and-half, sweetened condensed milk, and vanilla extract together in a container with a lid; cover container and shake vigorously until creamer is smooth."}]</t>
         </is>
       </c>
-      <c r="L42" s="1" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Creamer"}]</t>
         </is>
       </c>
-      <c r="M42" s="1" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"64\nCalories\n\n\n3g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699653818-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699653827-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OSwJzd3yCUZk5C1qo292AUC-8Bg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1349x0:1351x2):format(webp)/4557976-a243be35034b4a7abdc21ce5a581eae6.jpg"
@@ -3283,69 +3412,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260029/easy-blended-mocha/</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Easy Blended Mocha</t>
         </is>
       </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup ice cubes\n\n\n1 cup cold coffee\n\n\n2 teaspoons unsweetened cocoa powder\n\n\n1 cup cold water\n\n\n¾ cup sweetened condensed milk"}]</t>
-        </is>
-      </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup ice cubes\n\n\n1 cup cold coffee\n\n\n2 teaspoons unsweetened cocoa powder\n\n\n1 cup cold water\n\n\n¾ cup sweetened condensed milk'}]</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place ice, coffee, and cocoa powder in a blender; blend until no big ice chunks remain. Add water and sweetened condensed milk; blend until smooth."}]</t>
         </is>
       </c>
-      <c r="L44" s="1" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Mocha Recipes"}]</t>
         </is>
       </c>
-      <c r="M44" s="1" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"374\nCalories\n\n\n10g \nFat\n\n\n64g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699653832-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LfH3Ujn_ZF1UAISwthky5vJuYg4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1099x0:1101x2):format(webp)/7773936-d30d185839ef4d3faa2ca0970d3456d0.jpg"
@@ -3358,69 +3483,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278676/vegan-mocha-latte/</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Vegan Mocha Latte</t>
         </is>
       </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¾ cup coconut milk beverage (such as Silk®)\n\n\n2 tablespoons vegan chocolate chips (such as Enjoy Life®)\n\n\n½ tablespoon espresso powder\n\n\n¼ teaspoon ground cinnamon\n\n\n¼ teaspoon vanilla extract\n\n\n1 tablespoon vegan whipped cream (such as So Delicious® Cocowhip™)"}]</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup coconut milk beverage (such as Silk®)\n\n\n2 tablespoons vegan chocolate chips (such as Enjoy Life®)\n\n\n½ tablespoon espresso powder\n\n\n¼ teaspoon ground cinnamon\n\n\n¼ teaspoon vanilla extract\n\n\n1 tablespoon vegan whipped cream (such as So Delicious® Cocowhip™)'}]</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine coconut milk beverage and chocolate chips in a small saucepan over medium heat. Bring to a slow boil, whisking constantly, until chocolate chips are melted, 2 to 3 minutes. Whisk in espresso powder and cinnamon until completely incorporated. Remove from heat and stir in vanilla. Top with vegan whipped cream."}]</t>
         </is>
       </c>
-      <c r="L45" s="1" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Mocha Recipes"}]</t>
         </is>
       </c>
-      <c r="M45" s="1" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"229\nCalories\n\n\n17g \nFat\n\n\n25g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699653836-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XWh9IslqsFWJUO9BPdpxeBrsHAc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1919x0:1921x2):format(webp)/4536153-8ad8274236c34c8b97375d527d5a8b6c.jpg"
@@ -3433,69 +3554,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258695/skinny-chocolate-mocha-shake/</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Skinny Chocolate Mocha Shake</t>
         </is>
       </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 5 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup Gevalia® Cold Brew Concentrate - House Blend\n\n\n1 envelope sugar free instant cocoa mix\n\n\n¼ cup hot water\n\n\n¼ cup soy milk\n\n\n2 tablespoons sugar free chocolate syrup\n\n\n1 packet sugar substitute (such as Truvia®)"}]</t>
-        </is>
-      </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup Gevalia® Cold Brew Concentrate - House Blend\n\n\n1 envelope sugar free instant cocoa mix\n\n\n¼ cup hot water\n\n\n¼ cup soy milk\n\n\n2 tablespoons sugar free chocolate syrup\n\n\n1 packet sugar substitute (such as Truvia®)'}]</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cold brew concentrate in ice cube tray(s); place in freezer until frozen solid, 2 to 4 hours."},{"recipe_directions":"Dissolve hot cocoa mix in hot water."},{"recipe_directions":"Place coffee cubes in a blender. Add cocoa mixture, soy milk, chocolate syrup, and sweetener. Blend until icy and frothy, 1 or 2 minutes."}]</t>
         </is>
       </c>
-      <c r="L46" s="1" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Mocha Recipes"}]</t>
         </is>
       </c>
-      <c r="M46" s="1" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"123\nCalories\n\n\n2g \nFat\n\n\n21g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699653841-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SG66UrRk2KE7BdwmVhi4n6bo2vc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3538211-9c8c37f23dde4e2b8fcc50d77ce29d21.jpg"
@@ -3506,69 +3623,65 @@
 Skinny Dark Chocolate Mocha</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273741/skinny-dark-chocolate-mocha/</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Skinny Dark Chocolate Mocha</t>
         </is>
       </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 dark chocolate mocha"}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ cup unsweetened almond milk\n\n\n2 tablespoons dark cocoa powder\n\n\n2 (1 gram) packets stevia sweetener (such as Truvia®)\n\n\n½ teaspoon vanilla extract\n\n\n1 cup strong brewed coffee"}]</t>
-        </is>
-      </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup unsweetened almond milk\n\n\n2 tablespoons dark cocoa powder\n\n\n2 (1 gram) packets stevia sweetener (such as Truvia®)\n\n\n½ teaspoon vanilla extract\n\n\n1 cup strong brewed coffee'}]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine almond milk, cocoa powder, sweetener, and vanilla extract in a saucepan and bring to a simmer over medium-low heat. Froth cocoa-milk mixture using an immersion blender."},{"recipe_directions":"Pour hot chocolate milk into a mug, holding back the foam with the back of a spoon. Add coffee and top with foam."}]</t>
         </is>
       </c>
-      <c r="L47" s="1" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Mocha Recipes"}]</t>
         </is>
       </c>
-      <c r="M47" s="1" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"67\nCalories\n\n\n3g \nFat\n\n\n12g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699653848-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Plh3ICQI-mPBYXng5xkIA9tjS1g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1549x0:1551x2):format(webp)/8134166-daf6049493cc44f08db1b867dcda83a9.jpg"
@@ -3579,69 +3692,65 @@
 White Chocolate Butterscotch Mocha</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280337/white-chocolate-butterscotch-mocha/</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>White Chocolate Butterscotch Mocha</t>
         </is>
       </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1 \n\n\nYield:\n1 mocha"}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 tablespoon white chocolate chips\n\n\n1 tablespoon butterscotch chips\n\n\n2 (1 gram) packets stevia sweetener (such as Truvia®)\n\n\n1 cup hot coffee\n\n\n2 tablespoons heavy cream\n\n\n1 tablespoon whipped cream"}]</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon white chocolate chips\n\n\n1 tablespoon butterscotch chips\n\n\n2 (1 gram) packets stevia sweetener (such as Truvia®)\n\n\n1 cup hot coffee\n\n\n2 tablespoons heavy cream\n\n\n1 tablespoon whipped cream'}]</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine white chocolate chips, butterscotch chips, and sweetener in a mug. Add coffee and heavy cream and stir until chips are melted and heavy cream is fully incorporated. Top with whipped cream."}]</t>
         </is>
       </c>
-      <c r="L48" s="1" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Mocha Recipes"}]</t>
         </is>
       </c>
-      <c r="M48" s="1" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"242\nCalories\n\n\n19g \nFat\n\n\n17g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699653851-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/s5ox5gRAVyj0O0pS-yMvhApCnM8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/939576-98ca63f458c043c297dfc2c4193f0ac5.jpg"
@@ -3654,69 +3763,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229724/orange-mocha/</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Orange Mocha</t>
         </is>
       </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1 \n\n\nYield:\n1 servings"}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup brewed coffee\n\n\n2 tablespoons orange juice\n\n\n2 tablespoons milk\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon unsweetened cocoa powder"}]</t>
-        </is>
-      </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup brewed coffee\n\n\n2 tablespoons orange juice\n\n\n2 tablespoons milk\n\n\n1 tablespoon white sugar\n\n\n1 tablespoon unsweetened cocoa powder'}]</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir coffee, orange juice, milk, sugar, and cocoa powder together in a mug until the sugar and cocoa dissolve."}]</t>
         </is>
       </c>
-      <c r="L49" s="1" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Mocha Recipes"}]</t>
         </is>
       </c>
-      <c r="M49" s="1" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"92\nCalories\n\n\n2g \nFat\n\n\n20g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699653856-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XY0uUJIx2T5k_hYp5Yo3VwPT9RM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1004140-03e866c243ba4ac2901b56a78cbf7830.jpg"
@@ -3729,69 +3834,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232262/mocha-coffee-cooler/</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Mocha Coffee Cooler</t>
         </is>
       </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup cold strong brewed coffee\n\n\n¾ cup powdered non-dairy creamer\n\n\n⅓ cup white sugar\n\n\n2 tablespoons unsweetened cocoa powder\n\n\n½ teaspoon vanilla extract\n\n\n14 cubes  ice\n\n\n1 tablespoon vegetable oil\n\n\n1  5-second spray of cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup cold strong brewed coffee\n\n\n¾ cup powdered non-dairy creamer\n\n\n⅓ cup white sugar\n\n\n2 tablespoons unsweetened cocoa powder\n\n\n½ teaspoon vanilla extract\n\n\n14 cubes  ice\n\n\n1 tablespoon vegetable oil\n\n\n1  5-second spray of cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour coffee into a blender and add creamer, sugar, cocoa, vanilla extract, and ice. Pour vegetable oil over ice cubes and spray cooking spray into blender. Blend until smooth, about 1 1/2 minutes."}]</t>
         </is>
       </c>
-      <c r="L50" s="1" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Mocha Recipes"}]</t>
         </is>
       </c>
-      <c r="M50" s="1" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"399\nCalories\n\n\n20g \nFat\n\n\n56g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699653860-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UVWxcR76ZcVKrAcD92O-yzR14oA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/965241-0a9b8dbc7ddb49ecb6515f7933a345ab.jpg"
@@ -3804,69 +3905,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229720/iced-mocha-cola/</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Iced Mocha Cola</t>
         </is>
       </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"ice, or as needed\n\n\n1 tablespoon instant coffee granules\n\n\n1 (12 fluid ounce) can or bottle cola-flavored carbonated beverage, or as needed.\n\n\n1 ½ fluid ounces half-and-half"}]</t>
-        </is>
-      </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'ice, or as needed\n\n\n1 tablespoon instant coffee granules\n\n\n1 (12 fluid ounce) can or bottle cola-flavored carbonated beverage, or as needed.\n\n\n1 ½ fluid ounces half-and-half'}]</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a tall glass with ice. Add instant coffee granules. Slowly pour cola into the glass. Gently stir half-and-half into cola to integrate."}]</t>
         </is>
       </c>
-      <c r="L51" s="1" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Mocha Recipes"}]</t>
         </is>
       </c>
-      <c r="M51" s="1" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"217\nCalories\n\n\n5g \nFat\n\n\n42g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699653865-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/z7_AYLJRkeUEiHF2uFyq7DKmWcI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1323x0:1325x2):format(webp)/4557977-a0564bd3b3f347549eb579002e81726c.jpg"
@@ -3879,69 +3976,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260028/starbucks-mocha-frappuccino-replica/</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Starbucks Mocha Frappuccino Replica</t>
         </is>
       </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n1 day 1 hr\n\n\nTotal Time:\n1 day 1 hr 30 mins\n\n\nServings:\n6 \n\n\nYield:\n2 quarts"}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"6 cups cold water\n\n\n½ pound dark roast ground coffee beans\n\n\ncheesecloth\n\n\ncoffee filters\n\n\n5 cups 1% milk\n\n\n½ (14 ounce) can sweetened condensed milk\n\n\n3 tablespoons white sugar\n\n\n1 teaspoon white sugar\n\n\n1 tablespoon unsweetened cocoa powder\n\n\n½ cup hot tap water"}]</t>
-        </is>
-      </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups cold water\n\n\n½ pound dark roast ground coffee beans\n\n\ncheesecloth\n\n\ncoffee filters\n\n\n5 cups 1% milk\n\n\n½ (14 ounce) can sweetened condensed milk\n\n\n3 tablespoons white sugar\n\n\n1 teaspoon white sugar\n\n\n1 tablespoon unsweetened cocoa powder\n\n\n½ cup hot tap water'}]</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix 6 cups water and coffee in a 1/2-gallon jar (such as Ball) until grounds are completely saturated. Steep for 24 hours at room temperature, stirring occasionally."},{"recipe_directions":"Transfer coffee to the refrigerator and chill for 1 hour."},{"recipe_directions":"Place a small colander on top of a tall, lidded plastic container. Line the colander with a 6-inch square of cheesecloth; fit a coffee filter on top."},{"recipe_directions":"Pour about 1 cup of the coffee into the colander until filter begins to clog. Lift the corners of the cheesecloth carefully; twist the cloth and filter to extract the liquid. Drain the remaining liquid 1 cup at a time, using a new coffee filter each time. Repeat the process with the grounds, filtering 1 cup at a time; squeeze out as much liquid as you can. Refrigerate the concentrate until ready to use."},{"recipe_directions":"Combine concentrate, 1% milk, and condensed milk in a 1/2-gallon jar."},{"recipe_directions":"Dissolve 3 tablespoons plus 1 teaspoon sugar and cocoa powder together in a bowl of hot tap water. Add to the coffee-milk mixture; cover the jar and shake well."}]</t>
         </is>
       </c>
-      <c r="L52" s="1" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Mocha Recipes"}]</t>
         </is>
       </c>
-      <c r="M52" s="1" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"227\nCalories\n\n\n5g \nFat\n\n\n37g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699653869-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yxUfHshITAvjNVaVEdmvtqvg6eg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3630196-13e1fab602e543ec8a4420e6ff9e230e.jpg"
@@ -3954,69 +4047,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/247326/iced-mocha-frappe/</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Iced Mocha Frappé</t>
         </is>
       </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n8 mins\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 3 hrs 8 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups cold coffee\n\n\n2 cups whole milk\n\n\n¼ cup chocolate syrup\n\n\n¼ cup white sugar\n\n\n1 tablespoon whipped cream"}]</t>
-        </is>
-      </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups cold coffee\n\n\n2 cups whole milk\n\n\n¼ cup chocolate syrup\n\n\n¼ cup white sugar\n\n\n1 tablespoon whipped cream'}]</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour coffee into an ice cube tray. Freeze until solid, 3 to 4 hours."},{"recipe_directions":"Place frozen coffee cubes in a blender. Add milk, chocolate syrup, and sugar; blend until smooth."},{"recipe_directions":"Pour coffee mixture into 2 glasses and top with whipped cream."}]</t>
         </is>
       </c>
-      <c r="L53" s="1" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Mocha Recipes"}]</t>
         </is>
       </c>
-      <c r="M53" s="1" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"353\nCalories\n\n\n9g \nFat\n\n\n61g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699653874-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/A2J5ObNqJQByn3QVvbe8KL8imc8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3807830-dce3f45dbac44999aa633f6e4e7234f9.jpg"
@@ -4029,69 +4118,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254470/chocolate-peanut-butter-iced-coffee/</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Chocolate Peanut Butter Iced Coffee</t>
         </is>
       </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n1 \n\n\nYield:\n1 drink"}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup brewed coffee\n\n\n½ cup soy milk\n\n\n2 tablespoons chocolate syrup\n\n\n1 tablespoon peanut butter\n\n\n1 teaspoon vanilla extract\n\n\n1 packet granular no-calorie sucralose sweetener (such as Splenda®)"}]</t>
-        </is>
-      </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup brewed coffee\n\n\n½ cup soy milk\n\n\n2 tablespoons chocolate syrup\n\n\n1 tablespoon peanut butter\n\n\n1 teaspoon vanilla extract\n\n\n1 packet granular no-calorie sucralose sweetener (such as Splenda®)'}]</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour coffee into an ice cube tray; freeze until coffee ice cubes form, 1 to 2 hours."},{"recipe_directions":"Combine coffee ice cubes, soy milk, chocolate syrup, peanut butter, vanilla extract, and no-calorie sweetener in a blender. Cover and blend until frothy."}]</t>
         </is>
       </c>
-      <c r="L54" s="1" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"}]</t>
         </is>
       </c>
-      <c r="M54" s="1" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"284\nCalories\n\n\n11g \nFat\n\n\n37g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699653878-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5UjWUa2yQhYSGurMRhKYBpC54Cc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/7505242_Chocolate-Cream-Cold-Brew_Yoly_4x3-35883a8c1d054fb3a5635b0e2758b7c7.jpg"
@@ -4103,69 +4188,65 @@
 Chocolate Cream Cold Brew</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/chocolate-cream-cold-brew-recipe-7505242</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Chocolate Cream Cold Brew</t>
         </is>
       </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 tablespoons heavy whipping cream\n\n\n1 tablespoon milk\n\n\n1 1/2 teaspoons chocolate syrup (such as Torani® Sugar Free Syrup)\n\n\n1 1/2 teaspoons cocoa powder\n\n\n1/2 teaspoon  vanilla extract\n\n\n1 cup cold brew coffee"}]</t>
-        </is>
-      </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons heavy whipping cream\n\n\n1 tablespoon milk\n\n\n1 1/2 teaspoons chocolate syrup (such as Torani® Sugar Free Syrup)\n\n\n1 1/2 teaspoons cocoa powder\n\n\n1/2 teaspoon  vanilla extract\n\n\n1 cup cold brew coffee'}]</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Add heavy whipping cream, milk, chocolate syrup, cocoa powder and vanilla into a tall glass. Whip with a milk frother until until desired consistency is reached."},{"recipe_directions":"Serve over cold brew coffee."}]</t>
         </is>
       </c>
-      <c r="L55" s="1" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"}]</t>
         </is>
       </c>
-      <c r="M55" s="1" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"138\nCalories\n\n\n12g \nFat\n\n\n5g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699653882-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>Mochas</t>
         </is>
       </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/2034/drinks/coffee/mochas/</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ko3dOoTmZYWk2LZ1PgW7tmWBk9M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/966964-f6f613b51e564caea4e7d27dc9aa2566.jpg"
@@ -4178,136 +4259,104 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229725/blended-mocha-drink/</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Blended Mocha Drink</t>
         </is>
       </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¾ cup brewed espresso\n\n\n¼ cup sweetened condensed milk\n\n\n1 cup whole milk\n\n\n10  ice cubes, or as needed\n\n\n3 tablespoons chocolate syrup, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup brewed espresso\n\n\n¼ cup sweetened condensed milk\n\n\n1 cup whole milk\n\n\n10  ice cubes, or as needed\n\n\n3 tablespoons chocolate syrup, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir espresso and sweetened condensed milk together in a bowl. Add milk and stir; pour into a blender. Add ice and chocolate syrup to the espresso mixture. Blend until smooth."}]</t>
         </is>
       </c>
-      <c r="L56" s="1" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Mocha Recipes"}]</t>
         </is>
       </c>
-      <c r="M56" s="1" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"277\nCalories\n\n\n8g \nFat\n\n\n45g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699653890-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699653895-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/76aPeKMLt9L7mJs4594Mdm2A3GU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(904x0:906x2):format(webp)/PASSANO_ALR_CupOfCozy_5400-1_Croppable-a4ac3b89ff9d4c40bc4bec193948c183.jpg"
@@ -4319,69 +4368,65 @@
 Pumpkin Spice Latte Concentrate</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8389922/pumpkin-spice-latte-concentrate/</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Pumpkin Spice Latte Concentrate</t>
         </is>
       </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nCool Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n25"}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 ¼ cups water\n\n\n1 (15 ounce) can pumpkin puree\n\n\n1 cup packed brown sugar\n\n\n1 cup white sugar\n\n\n3 tablespoons pumpkin pie spice"},{"ingredients":"⅔ cup whole milk\n\n\n6 tablespoons hot brewed espresso\n\n\n2 tablespoons sweetened whipped cream\n\n\n1 pinch pumpkin pie spice, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ¼ cups water\n\n\n1 (15 ounce) can pumpkin puree\n\n\n1 cup packed brown sugar\n\n\n1 cup white sugar\n\n\n3 tablespoons pumpkin pie spice'}, {'recipe_ingredients': '⅔ cup whole milk\n\n\n6 tablespoons hot brewed espresso\n\n\n2 tablespoons sweetened whipped cream\n\n\n1 pinch pumpkin pie spice, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together water, pumpkin, brown and white sugars, and pumpkin pie spice in a medium saucepan. Bring to a boil; reduce heat. Simmer for 10 minutes, stirring occasionally, until slightly thickened. Remove from heat. Cool completely."},{"recipe_directions":"Stir together milk and 3 tablespoons Pumpkin Spiced Latte Concentrate in a microwave-proof 12- to 16-ounce mug."},{"recipe_directions":"Heat in a microwave until hot, but not boiling, about 1 minute. Whisk until frothy. Pour hot espresso into milk mixture; stir gently. Top with whipped cream and a sprinkle of pumpkin pie spice. Makes a 10-ounce latte (1 1/4 cups)."}]</t>
         </is>
       </c>
-      <c r="L58" s="1" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Latte Recipes"}]</t>
         </is>
       </c>
-      <c r="M58" s="1" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"77\nCalories\n\n\n0g \nFat\n\n\n19g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699653899-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/O6CRRtBNayOIKcMfAth-ULQryaw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1087x0:1089x2):format(webp)/7755605-3539d53f8b4840aebe87cf1690e19373.jpg"
@@ -4392,69 +4437,65 @@
 White Chocolate Peanut Butter Latte</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278890/white-chocolate-peanut-butter-latte/</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>White Chocolate Peanut Butter Latte</t>
         </is>
       </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 latte"}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ cup milk\n\n\n1 tablespoon white chocolate-flavored syrup\n\n\n1 ½ tablespoons peanut butter\n\n\n2 packets artificial sweetener\n\n\n1 cup hot coffee"}]</t>
-        </is>
-      </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup milk\n\n\n1 tablespoon white chocolate-flavored syrup\n\n\n1 ½ tablespoons peanut butter\n\n\n2 packets artificial sweetener\n\n\n1 cup hot coffee'}]</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat milk and sweetener in a saucepan over medium heat. Blend with an immersion blender until frothy."},{"recipe_directions":"Combine peanut butter and white chocolate syrup in a mug. Pour in hot milk, holding foam with the back of a spoon. Add coffee and foam."}]</t>
         </is>
       </c>
-      <c r="L59" s="1" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Latte Recipes"}]</t>
         </is>
       </c>
-      <c r="M59" s="1" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"269\nCalories\n\n\n15g \nFat\n\n\n24g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699653904-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OLAtP2UXLv1d04BOkCq0bHbXTFs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(961x0:963x2):format(webp)/9123144-2bb03c23e8da490182ebcf3f5248478a.jpg"
@@ -4465,69 +4506,65 @@
 Skinny White Chocolate Peanut Butter Latte</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273737/skinny-white-chocolate-peanut-butter-latte/</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Skinny White Chocolate Peanut Butter Latte</t>
         </is>
       </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 latte"}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 tablespoon sugar-free white chocolate-flavored syrup (such as Torani®)\n\n\n1 cup unsweetened almond milk\n\n\n2 tablespoons powdered peanut butter (such as PB2®)\n\n\n2 (1 gram) packets stevia sweetener (such as Truvia®) (Optional)\n\n\n1 cup coffee"}]</t>
-        </is>
-      </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon sugar-free white chocolate-flavored syrup (such as Torani®)\n\n\n1 cup unsweetened almond milk\n\n\n2 tablespoons powdered peanut butter (such as PB2®)\n\n\n2 (1 gram) packets stevia sweetener (such as Truvia®) (Optional)\n\n\n1 cup coffee'}]</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour white chocolate syrup into a mug."},{"recipe_directions":"Heat almond milk, peanut butter powder, and sweetener in a saucepan over medium heat until simmering. Remove from heat and froth with an immersion blender. Pour milk into the mug, holding foam back with the back of a spoon. Add coffee and top with foam."}]</t>
         </is>
       </c>
-      <c r="L60" s="1" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Latte Recipes"}]</t>
         </is>
       </c>
-      <c r="M60" s="1" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"113\nCalories\n\n\n4g \nFat\n\n\n16g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699653908-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6HcGUMNWOYq5euAcaW135ZnxlfY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3555615-662ae8c3da9647baa6d7563de52fc6fd.jpg"
@@ -4538,69 +4575,65 @@
 Skinny White Chocolate-Coconut Latte</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268499/skinny-white-chocolate-coconut-latte/</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Skinny White Chocolate-Coconut Latte</t>
         </is>
       </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup coconut milk beverage (such as Silk®), heated\n\n\n1 tablespoon sugar-free white chocolate-flavored syrup (such as Torani®)\n\n\n1 tablespoon sugar-free coconut-flavored syrup (such as Torani®)\n\n\n1 cup strong brewed coffee\n\n\n1 teaspoon whipped cream (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup coconut milk beverage (such as Silk®), heated\n\n\n1 tablespoon sugar-free white chocolate-flavored syrup (such as Torani®)\n\n\n1 tablespoon sugar-free coconut-flavored syrup (such as Torani®)\n\n\n1 cup strong brewed coffee\n\n\n1 teaspoon whipped cream (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine coconut milk, white chocolate-flavored syrup, and coconut-flavored syrup in a mug. Pour hot coffee on top and garnish with a dollop of whipped cream."}]</t>
         </is>
       </c>
-      <c r="L61" s="1" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M61" s="1" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"100\nCalories\n\n\n7g \nFat\n\n\n7g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699653913-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5Ub8QtGO21dISnF5kYsxfzDLIGg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1549x0:1551x2):format(webp)/4557958-ea5958b0126c46e7ae073c3a8f199f01.jpg"
@@ -4613,69 +4646,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/180577/pumpkin-latte-mix/</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Pumpkin Latte Mix</t>
         </is>
       </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n18 \n\n\nYield:\n2 1/3 cups"}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"⅓ cup vanilla flavored powdered creamer\n\n\n1 cup pumpkin spice flavored powdered creamer\n\n\n½ cup instant coffee granules\n\n\n½ cup white sugar"}]</t>
-        </is>
-      </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup vanilla flavored powdered creamer\n\n\n1 cup pumpkin spice flavored powdered creamer\n\n\n½ cup instant coffee granules\n\n\n½ cup white sugar'}]</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir together the vanilla creamer, pumpkin spice creamer, instant coffee granules, and sugar. Store the latte mix in an airtight container."},{"recipe_directions":"For 1 serving, place 2 tablespoons latte mix in a coffee cup. Add 1 cup boiling water, and stir to dissolve."}]</t>
         </is>
       </c>
-      <c r="L62" s="1" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Latte Recipes"}]</t>
         </is>
       </c>
-      <c r="M62" s="1" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"74\nCalories\n\n\n3g \nFat\n\n\n12g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="1" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>1699653917-62</t>
         </is>
       </c>
-      <c r="B63" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D63" s="1" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E63" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F63" s="1" t="inlineStr">
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/enMTid72wtIIueUtZqU62Hc1UYU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1213x0:1215x2):format(webp)/7930338-a82d3350b3284ea6b2e015b049e39007.jpg"
@@ -4688,69 +4717,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G63" s="1" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279418/whipped-coffee-iced-latte/</t>
         </is>
       </c>
-      <c r="H63" s="1" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Whipped Coffee Iced Latte</t>
         </is>
       </c>
-      <c r="I63" s="1" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1 \n\n\nYield:\n1 latte"}]</t>
         </is>
       </c>
-      <c r="J63" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¼ cup boiling water\n\n\n1 tablespoon instant coffee granules\n\n\n1 tablespoon white sugar\n\n\n1 cup ice cubes\n\n\n1 cup cold milk"}]</t>
-        </is>
-      </c>
-      <c r="K63" s="1" t="inlineStr">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup boiling water\n\n\n1 tablespoon instant coffee granules\n\n\n1 tablespoon white sugar\n\n\n1 cup ice cubes\n\n\n1 cup cold milk'}]</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine boiling water, coffee granules, and sugar in a large mug and whip with an immersion blender until foamy, about 2 minutes. Set aside."},{"recipe_directions":"Fill a large glass with ice cubes. Pour milk over ice cubes. Top with the coffee foam."}]</t>
         </is>
       </c>
-      <c r="L63" s="1" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Latte Recipes"}]</t>
         </is>
       </c>
-      <c r="M63" s="1" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"176\nCalories\n\n\n5g \nFat\n\n\n25g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="1" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>1699653923-63</t>
         </is>
       </c>
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C64" s="1" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D64" s="1" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E64" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F64" s="1" t="inlineStr">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uWTON6_4DXxgGoTqDQZ7Kmtx2cs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1495x0:1497x2):format(webp)/5407504-cc4f8c3f6bb2470a87db994d16396bd0.jpg"
@@ -4763,69 +4788,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G64" s="1" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264818/brown-sugar-coconut-latte/</t>
         </is>
       </c>
-      <c r="H64" s="1" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Brown Sugar Coconut Latte</t>
         </is>
       </c>
-      <c r="I64" s="1" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="J64" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¼ cup canned coconut milk\n\n\n½ cup unsweetened coconut milk beverage (such as Silk®)\n\n\n1 tablespoon brown sugar\n\n\n½ teaspoon coconut oil\n\n\n¼ teaspoon coconut extract\n\n\n1 cup strong brewed coffee"}]</t>
-        </is>
-      </c>
-      <c r="K64" s="1" t="inlineStr">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup canned coconut milk\n\n\n½ cup unsweetened coconut milk beverage (such as Silk®)\n\n\n1 tablespoon brown sugar\n\n\n½ teaspoon coconut oil\n\n\n¼ teaspoon coconut extract\n\n\n1 cup strong brewed coffee'}]</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine canned coconut milk, coconut milk beverage, brown sugar, coconut oil, and coconut extract in a saucepan. Heat over low heat until hot. Use an immersion blender to froth milk mixture until foamy."},{"recipe_directions":"Pour coconut milk mixture into a large mug, holding foam back with the back of a spoon. Pour in coffee and add foam on top."}]</t>
         </is>
       </c>
-      <c r="L64" s="1" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M64" s="1" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"464\nCalories\n\n\n43g \nFat\n\n\n22g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="1" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>1699653932-64</t>
         </is>
       </c>
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C65" s="1" t="inlineStr">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D65" s="1" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E65" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F65" s="1" t="inlineStr">
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dFHo2hW2MnNAdxLvr8uBjOezOxo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3600684-ed02e0debfca465cad005439251e7fb7.jpg"
@@ -4838,69 +4859,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G65" s="1" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239223/spicy-pumpkin-spice-latte/</t>
         </is>
       </c>
-      <c r="H65" s="1" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Spicy Pumpkin Spice Latte</t>
         </is>
       </c>
-      <c r="I65" s="1" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="J65" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup unsweetened vanilla-flavored almond milk\n\n\n½ cup pumpkin puree\n\n\n1 tablespoon vanilla extract\n\n\n1 tablespoon white sugar, or to taste\n\n\n1 ½ teaspoons pumpkin pie spice\n\n\n  freshly ground black pepper to taste\n\n\n10 fluid ounces hot strongly brewed coffee\n\n\n2 tablespoons whipped cream, or more to taste\n\n\n1 pinch pumpkin pie spice, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="K65" s="1" t="inlineStr">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup unsweetened vanilla-flavored almond milk\n\n\n½ cup pumpkin puree\n\n\n1 tablespoon vanilla extract\n\n\n1 tablespoon white sugar, or to taste\n\n\n1 ½ teaspoons pumpkin pie spice\n\n\n  freshly ground black pepper to taste\n\n\n10 fluid ounces hot strongly brewed coffee\n\n\n2 tablespoons whipped cream, or more to taste\n\n\n1 pinch pumpkin pie spice, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk almond milk, pumpkin puree, vanilla extract, sugar, 1 1/2 teaspoons pumpkin pie spice, and pepper together in a small saucepan over medium-high heat. Cook, stirring constantly, until mixture is almost boiling; remove from heat and whisk until frothy, about 1 minute. Divide mixture between 2 mugs."},{"recipe_directions":"Slowly pour coffee into each mug. Top with whipped cream and pinch pumpkin pie spice."}]</t>
         </is>
       </c>
-      <c r="L65" s="1" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Fruits and Vegetables"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"}]</t>
         </is>
       </c>
-      <c r="M65" s="1" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"129\nCalories\n\n\n3g \nFat\n\n\n23g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="1" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>1699653937-65</t>
         </is>
       </c>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D66" s="1" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E66" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F66" s="1" t="inlineStr">
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wUGT93wYGFX9Vd6VdKgIM_wcjnM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(914x0:916x2):format(webp)/8275839-a00d5a0c41174b0492b984de306d3cfb.jpg"
@@ -4913,69 +4930,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G66" s="1" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280794/turmeric-iced-coffee-latte/</t>
         </is>
       </c>
-      <c r="H66" s="1" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Turmeric Iced Coffee Latte</t>
         </is>
       </c>
-      <c r="I66" s="1" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 latte"}]</t>
         </is>
       </c>
-      <c r="J66" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¾ cup coconut milk beverage (such as Silk®)\n\n\n1 teaspoon vanilla extract\n\n\n2 packets stevia powder, divided\n\n\n  ice cubes\n\n\n2 tablespoons water\n\n\n1 tablespoon instant coffee granules\n\n\n½ teaspoon ground turmeric\n\n\n¼ teaspoon ground ginger\n\n\n¼ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="K66" s="1" t="inlineStr">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup coconut milk beverage (such as Silk®)\n\n\n1 teaspoon vanilla extract\n\n\n2 packets stevia powder, divided\n\n\n  ice cubes\n\n\n2 tablespoons water\n\n\n1 tablespoon instant coffee granules\n\n\n½ teaspoon ground turmeric\n\n\n¼ teaspoon ground ginger\n\n\n¼ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour coconut milk, vanilla extract, and 1 packet stevia powder into a glass and stir to combine. Fill glass with ice cubes."},{"recipe_directions":"Combine water, instant coffee granules, 1 packet stevia powder, turmeric, ginger and cinnamon in a microwave-safe glass; stir to mix. Microwave for 30 seconds. Stir. Continue microwaving at 15-second intervals until hot and foamy. Carefully pour over the iced coconut milk."}]</t>
         </is>
       </c>
-      <c r="L66" s="1" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Latte Recipes"}]</t>
         </is>
       </c>
-      <c r="M66" s="1" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"87\nCalories\n\n\n4g \nFat\n\n\n10g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="1" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>1699653941-66</t>
         </is>
       </c>
-      <c r="B67" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C67" s="1" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D67" s="1" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E67" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F67" s="1" t="inlineStr">
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gwnWwv1OepOZi139WmtXUQm0XY4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/4570757-d2924f0d93f44d77ab7baee4eb2464c5.jpg"
@@ -4988,69 +5001,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G67" s="1" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/127533/green-tea-latte/</t>
         </is>
       </c>
-      <c r="H67" s="1" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Green Tea Latte</t>
         </is>
       </c>
-      <c r="I67" s="1" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n1 mins\n\n\nCook Time:\n1 mins\n\n\nTotal Time:\n2 mins\n\n\nServings:\n2 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="J67" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup soy milk\n\n\n1 cup water\n\n\n1 tablespoon green tea powder (matcha)\n\n\n2 tablespoons white sugar"}]</t>
-        </is>
-      </c>
-      <c r="K67" s="1" t="inlineStr">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup soy milk\n\n\n1 cup water\n\n\n1 tablespoon green tea powder (matcha)\n\n\n2 tablespoons white sugar'}]</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a small saucepan, combine the soy milk, water, green tea powder and sugar. Warm over medium heat while whisking until hot and foamy. Pour into mugs and enjoy."}]</t>
         </is>
       </c>
-      <c r="L67" s="1" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M67" s="1" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"119\nCalories\n\n\n2g \nFat\n\n\n21g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="1" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>1699653945-67</t>
         </is>
       </c>
-      <c r="B68" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C68" s="1" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D68" s="1" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E68" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F68" s="1" t="inlineStr">
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JD0wx7eXVJXP-bEsukP6T0e9t34=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(383x0:385x2):format(webp)/hostess-snack-cakes-iced-lattes-1583853868-73cef4ba9d374f4898e060bfa5b02850.jpg"
@@ -5062,69 +5071,65 @@
 New Hostess Iced Lattes Taste Just Like Twinkies, Honey Buns, and Other Snack Cakes</t>
         </is>
       </c>
-      <c r="G68" s="1" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/hostess-lattes-twinkies-ding-dongs/</t>
         </is>
       </c>
-      <c r="H68" s="1" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>New Hostess Iced Lattes Taste Just Like Twinkies, Honey Buns, and Other Snack Cakes</t>
         </is>
       </c>
-      <c r="I68" s="1" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J68" s="1" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K68" s="1" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="L68" s="1" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Food News and Trends"}]</t>
         </is>
       </c>
-      <c r="M68" s="1" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>1699653950-68</t>
         </is>
       </c>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D69" s="1" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E69" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F69" s="1" t="inlineStr">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MZ1FzWwhLMPUJ1Aut6FqA0xEiLs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/707064-2e727763622a451ba4b412a10b77631b.jpg"
@@ -5137,69 +5142,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G69" s="1" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/139119/brown-sugar-caramel-latte/</t>
         </is>
       </c>
-      <c r="H69" s="1" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Brown Sugar-Caramel Latte</t>
         </is>
       </c>
-      <c r="I69" s="1" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 latte"}]</t>
         </is>
       </c>
-      <c r="J69" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 tablespoon brown sugar\n\n\n¼ cup half-and-half\n\n\n1 tablespoon caramel ice cream topping\n\n\n¾ cup hot, brewed coffee"}]</t>
-        </is>
-      </c>
-      <c r="K69" s="1" t="inlineStr">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon brown sugar\n\n\n¼ cup half-and-half\n\n\n1 tablespoon caramel ice cream topping\n\n\n¾ cup hot, brewed coffee'}]</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir brown sugar into half-and-half until dissolved. Whip with a milk frother or small whisk. Pour coffee into a mug, and stir in caramel sauce until dissolved. Pour frothed half-and-half into coffee, and serve."}]</t>
         </is>
       </c>
-      <c r="L69" s="1" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M69" s="1" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"184\nCalories\n\n\n7g \nFat\n\n\n29g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>1699653954-69</t>
         </is>
       </c>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="inlineStr">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D70" s="1" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E70" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F70" s="1" t="inlineStr">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ki6fZWnmhIxu6mObJsKrgc2vfZw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3531730-16e463fff5ec41f6a225191738775d38.jpg"
@@ -5212,69 +5213,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G70" s="1" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273514/white-chocolate-raspberry-latte/</t>
         </is>
       </c>
-      <c r="H70" s="1" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>White Chocolate Raspberry Latte</t>
         </is>
       </c>
-      <c r="I70" s="1" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="J70" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 tablespoon sugar-free white chocolate-flavored syrup (such as Torani®)\n\n\n1 tablespoon sugar-free raspberry syrup (such as Torani®)\n\n\n1 cup soy milk\n\n\n2 tablespoons white chocolate chips (Optional)\n\n\n1 teaspoon vanilla extract\n\n\n1 cup coffee"}]</t>
-        </is>
-      </c>
-      <c r="K70" s="1" t="inlineStr">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon sugar-free white chocolate-flavored syrup (such as Torani®)\n\n\n1 tablespoon sugar-free raspberry syrup (such as Torani®)\n\n\n1 cup soy milk\n\n\n2 tablespoons white chocolate chips (Optional)\n\n\n1 teaspoon vanilla extract\n\n\n1 cup coffee'}]</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour white chocolate and raspberry flavored syrups into a mug."},{"recipe_directions":"Heat soy milk in a sauce pan over medium heat and bring to a simmer. Add white chocolate chips and vanilla extract. Using an immersion blender, froth milk. Pour into mug, holding the foam back with a spoon. Pour in coffee and add foam on top."}]</t>
         </is>
       </c>
-      <c r="L70" s="1" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M70" s="1" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"273\nCalories\n\n\n12g \nFat\n\n\n29g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>1699653959-70</t>
         </is>
       </c>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D71" s="1" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E71" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F71" s="1" t="inlineStr">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Vf_FoWYbtPX69wq7Jaf2h2GTJLs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1057033-598ded4cc0f644e8a83c0a0a5ef776ae.jpg"
@@ -5287,69 +5284,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G71" s="1" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234849/quick-pumpkin-spice-latte/</t>
         </is>
       </c>
-      <c r="H71" s="1" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Quick Pumpkin Spice Latte</t>
         </is>
       </c>
-      <c r="I71" s="1" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="J71" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup milk, divided\n\n\n1 tablespoon white sugar, or more to taste\n\n\n1 tablespoon pumpkin puree\n\n\n1 teaspoon pumpkin pie spice\n\n\n½ teaspoon vanilla extract\n\n\n¼ cup brewed espresso"}]</t>
-        </is>
-      </c>
-      <c r="K71" s="1" t="inlineStr">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup milk, divided\n\n\n1 tablespoon white sugar, or more to taste\n\n\n1 tablespoon pumpkin puree\n\n\n1 teaspoon pumpkin pie spice\n\n\n½ teaspoon vanilla extract\n\n\n¼ cup brewed espresso'}]</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk 1/2 cup milk, sugar, pumpkin puree, pumpkin pie spice, and vanilla extract in a small saucepan over low heat. Simmer for 5 minutes. Whisk in remaining 1/2 cup milk."},{"recipe_directions":"Pour milk mixture through a fine-mesh sieve to remove pulp. Return milk mixture to saucepan and simmer, whisking, 2 minutes. Add espresso and whisk until foamy, 1 minute."}]</t>
         </is>
       </c>
-      <c r="L71" s="1" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M71" s="1" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"184\nCalories\n\n\n5g \nFat\n\n\n25g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>1699653964-71</t>
         </is>
       </c>
-      <c r="B72" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D72" s="1" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E72" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F72" s="1" t="inlineStr">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sOo3O9eNnc79x72sd75gXMQloqY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2278932-235835bb747c4e5e9d1608cca36eea0f.jpg"
@@ -5362,69 +5355,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G72" s="1" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235879/campfire-smores-latte/</t>
         </is>
       </c>
-      <c r="H72" s="1" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Campfire S'Mores Latte</t>
         </is>
       </c>
-      <c r="I72" s="1" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n1 \n\n\nYield:\n1 latte"}]</t>
         </is>
       </c>
-      <c r="J72" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 fluid ounce brewed espresso\n\n\n3 tablespoons marshmallow ice cream topping (such as Smucker's®)\n\n\n1 ½ teaspoons white sugar\n\n\n1 ½ teaspoons cocoa powder\n\n\n⅔ cup milk\n\n\n¼ cup whipped cream\n\n\n1 tablespoon graham cracker crumbs"}]</t>
-        </is>
-      </c>
-      <c r="K72" s="1" t="inlineStr">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 fluid ounce brewed espresso\n\n\n3 tablespoons marshmallow ice cream topping (such as Smucker's®)\n\n\n1 ½ teaspoons white sugar\n\n\n1 ½ teaspoons cocoa powder\n\n\n⅔ cup milk\n\n\n¼ cup whipped cream\n\n\n1 tablespoon graham cracker crumbs"}]</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour espresso into a mug; stir in marshmallow topping, sugar, and cocoa powder until well blended."},{"recipe_directions":"Heat milk in a saucepan over medium-low heat until lightly boiling, 3 to 5 minutes; remove from heat and froth milk with a frothing wand or a whisk. Pour frothed milk over espresso mixture. Top latte with whipped cream and graham cracker crumbs."}]</t>
         </is>
       </c>
-      <c r="L72" s="1" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Latte Recipes"}]</t>
         </is>
       </c>
-      <c r="M72" s="1" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"232\nCalories\n\n\n8g \nFat\n\n\n36g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>1699653968-72</t>
         </is>
       </c>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D73" s="1" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E73" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F73" s="1" t="inlineStr">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XGKSzLQx06v5RHV8vuPK4wo10CU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3586022-397548061de84f479ad63bbf1fe5c57b.jpg"
@@ -5437,69 +5426,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G73" s="1" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/83029/pumpkin-spice-latte/</t>
         </is>
       </c>
-      <c r="H73" s="1" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Pumpkin Spice Latte</t>
         </is>
       </c>
-      <c r="I73" s="1" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n2 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n7 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="J73" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 tablespoons canned pumpkin puree\n\n\n1 teaspoon vanilla extract\n\n\n2 tablespoons white sugar\n\n\n1 cup milk\n\n\n¼ teaspoon pumpkin pie spice\n\n\n1 (1.5 fluid ounce) jigger brewed espresso"}]</t>
-        </is>
-      </c>
-      <c r="K73" s="1" t="inlineStr">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons canned pumpkin puree\n\n\n1 teaspoon vanilla extract\n\n\n2 tablespoons white sugar\n\n\n1 cup milk\n\n\n¼ teaspoon pumpkin pie spice\n\n\n1 (1.5 fluid ounce) jigger brewed espresso'}]</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Brew your espresso. Meanwhile, in a small saucepan, whisk together the pumpkin, vanilla, sugar, pumpkin pie spice and milk. Warm over medium heat, whisking constantly, until hot and frothy. Do not bring to a boil. Pour the espresso into a mug and pour the pumpkin spiced milk over it."}]</t>
         </is>
       </c>
-      <c r="L73" s="1" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M73" s="1" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"244\nCalories\n\n\n5g \nFat\n\n\n40g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>1699653971-73</t>
         </is>
       </c>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="inlineStr">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D74" s="1" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E74" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F74" s="1" t="inlineStr">
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/W-popw5BH8oD6wlJNs3eVWYpxJk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1462070-78da3616e1b6429f834e04fde0674a9f.jpg"
@@ -5512,69 +5497,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G74" s="1" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/127890/pumpkin-spiced-latte/</t>
         </is>
       </c>
-      <c r="H74" s="1" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Pumpkin Spiced Latte</t>
         </is>
       </c>
-      <c r="I74" s="1" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n3 mins\n\n\nTotal Time:\n18 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="J74" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 cups hot whole milk\n\n\n4 teaspoons white sugar\n\n\n½ teaspoon vanilla extract\n\n\n½ teaspoon pumpkin pie spice\n\n\n6 ounces double-strength brewed coffee\n\n\n3 tablespoons sweetened whipped cream\n\n\n3 pinches pumpkin pie spice"}]</t>
-        </is>
-      </c>
-      <c r="K74" s="1" t="inlineStr">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups hot whole milk\n\n\n4 teaspoons white sugar\n\n\n½ teaspoon vanilla extract\n\n\n½ teaspoon pumpkin pie spice\n\n\n6 ounces double-strength brewed coffee\n\n\n3 tablespoons sweetened whipped cream\n\n\n3 pinches pumpkin pie spice'}]</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine the hot milk, sugar, vanilla extract, and pumpkin pie spice in a blender; blend until frothy. Pour the mixture into 3 coffee mugs to about 2/3 full. Pour 2 ounces coffee into each mug. Garnish each mug with whipped topping and pumpkin pie spice."}]</t>
         </is>
       </c>
-      <c r="L74" s="1" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M74" s="1" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"158\nCalories\n\n\n6g \nFat\n\n\n18g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>1699653975-74</t>
         </is>
       </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="inlineStr">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D75" s="1" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E75" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F75" s="1" t="inlineStr">
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9DgYa5ANjeB-gwDJ6PBuyRmQ260=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2107268-263718df097e409d9bce9eac08cd9859.jpg"
@@ -5587,69 +5568,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G75" s="1" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/137332/abbeys-white-chocolate-latte/</t>
         </is>
       </c>
-      <c r="H75" s="1" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Abbey's White Chocolate Latte</t>
         </is>
       </c>
-      <c r="I75" s="1" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="J75" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups milk\n\n\n1 tablespoon heavy cream\n\n\n⅛ teaspoon vanilla extract\n\n\n1 tablespoon white sugar\n\n\n½ cup brewed espresso\n\n\n¼ cup white chocolate chips, chopped"}]</t>
-        </is>
-      </c>
-      <c r="K75" s="1" t="inlineStr">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups milk\n\n\n1 tablespoon heavy cream\n\n\n⅛ teaspoon vanilla extract\n\n\n1 tablespoon white sugar\n\n\n½ cup brewed espresso\n\n\n¼ cup white chocolate chips, chopped'}]</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine milk and cream in a saucepan and whisk over high heat until hot and frothy. Remove from heat and stir in vanilla and sugar. Whisk together hot espresso and white chocolate chips in a mug until smooth. If you are making two, pour half into another mug. Top with frothy hot milk and stir to blend in flavoring."}]</t>
         </is>
       </c>
-      <c r="L75" s="1" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M75" s="1" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"270\nCalories\n\n\n14g \nFat\n\n\n28g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>1699653979-75</t>
         </is>
       </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="inlineStr">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D76" s="1" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E76" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F76" s="1" t="inlineStr">
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vESlce_36R-ex2OI4qWOwbmFkJE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/632952-3004f4982dbc4f25b1af963b8f19a283.jpg"
@@ -5662,69 +5639,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G76" s="1" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/143269/frozen-caramel-latte/</t>
         </is>
       </c>
-      <c r="H76" s="1" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Frozen Caramel Latte</t>
         </is>
       </c>
-      <c r="I76" s="1" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="J76" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 fluid ounces brewed espresso\n\n\n1 tablespoon caramel sauce\n\n\n2 tablespoons white sugar\n\n\n¾ cup milk\n\n\n1 ½ cups ice cubes\n\n\n2 tablespoons whipped cream"}]</t>
-        </is>
-      </c>
-      <c r="K76" s="1" t="inlineStr">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 fluid ounces brewed espresso\n\n\n1 tablespoon caramel sauce\n\n\n2 tablespoons white sugar\n\n\n¾ cup milk\n\n\n1 ½ cups ice cubes\n\n\n2 tablespoons whipped cream'}]</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the espresso, caramel sauce, and sugar into a blender pitcher. Blend on high until the caramel and sugar dissolve into the espresso. Pour in the milk and add the ice; continue blending until smooth and frothy. Top with whipped cream to serve."}]</t>
         </is>
       </c>
-      <c r="L76" s="1" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Latte Recipes"}]</t>
         </is>
       </c>
-      <c r="M76" s="1" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"293\nCalories\n\n\n9g \nFat\n\n\n48g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="1" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>1699653983-76</t>
         </is>
       </c>
-      <c r="B77" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="inlineStr">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D77" s="1" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E77" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F77" s="1" t="inlineStr">
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RCvM8Pr9oyucYOv4Y4jIaDT5Jo4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1086x0:1088x2):format(webp)/7631953-fe22264ab1cb4e3e8534ee2518413ad8.jpg"
@@ -5737,69 +5710,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G77" s="1" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267249/brown-sugar-latte/</t>
         </is>
       </c>
-      <c r="H77" s="1" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Brown Sugar Latte</t>
         </is>
       </c>
-      <c r="I77" s="1" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n2 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n7 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="J77" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ cup milk\n\n\n1 tablespoon caramel sauce\n\n\n1 tablespoon brown sugar\n\n\n1 cup strong brewed coffee"}]</t>
-        </is>
-      </c>
-      <c r="K77" s="1" t="inlineStr">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup milk\n\n\n1 tablespoon caramel sauce\n\n\n1 tablespoon brown sugar\n\n\n1 cup strong brewed coffee'}]</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine milk, caramel sauce, and brown sugar in a saucepan over medium heat and bring to a simmer. Froth mixture using a stick blender."},{"recipe_directions":"Pour hot milk mixture into a mug, holding back the foam with the back of a spoon. Add coffee and pour foam on top."}]</t>
         </is>
       </c>
-      <c r="L77" s="1" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Latte Recipes"}]</t>
         </is>
       </c>
-      <c r="M77" s="1" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"164\nCalories\n\n\n3g \nFat\n\n\n32g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>1699653987-77</t>
         </is>
       </c>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C78" s="1" t="inlineStr">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D78" s="1" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E78" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F78" s="1" t="inlineStr">
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hhbNsYxvATYLVp3UBOsfiQidoqo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2303x0:2305x2):format(webp)/6306088-891817ef61784cfe9ab404c2a95ef846.jpg"
@@ -5812,69 +5781,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G78" s="1" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268430/biscoff-latte/</t>
         </is>
       </c>
-      <c r="H78" s="1" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Biscoff® Latte</t>
         </is>
       </c>
-      <c r="I78" s="1" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 latte"}]</t>
         </is>
       </c>
-      <c r="J78" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ cup milk\n\n\n1 tablespoon brown sugar\n\n\n1 tablespoon cookie butter (such as Biscoff®)\n\n\n⅛ teaspoon ground cinnamon\n\n\n1 cup coffee"}]</t>
-        </is>
-      </c>
-      <c r="K78" s="1" t="inlineStr">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup milk\n\n\n1 tablespoon brown sugar\n\n\n1 tablespoon cookie butter (such as Biscoff®)\n\n\n⅛ teaspoon ground cinnamon\n\n\n1 cup coffee'}]</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat milk and brown sugar in a small saucepan until frothy, close to simmering. Reduce heat to low. Whisk in cookie butter and cinnamon, then mix in coffee."}]</t>
         </is>
       </c>
-      <c r="L78" s="1" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Latte Recipes"}]</t>
         </is>
       </c>
-      <c r="M78" s="1" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"206\nCalories\n\n\n9g \nFat\n\n\n27g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>1699653991-78</t>
         </is>
       </c>
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C79" s="1" t="inlineStr">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D79" s="1" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E79" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F79" s="1" t="inlineStr">
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VKT2wehz00axHRXq--fW06vh7Ns=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/776874-548cd097a01c4afe96f690af425bc553.jpg"
@@ -5887,69 +5852,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G79" s="1" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/146967/flavored-latte/</t>
         </is>
       </c>
-      <c r="H79" s="1" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Flavored Latte</t>
         </is>
       </c>
-      <c r="I79" s="1" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n4 mins\n\n\nCook Time:\n1 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="J79" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ¼ cups 2% milk \n\n\n2 tablespoons any flavor of flavored syrup\n\n\n1 (1.5 fluid ounce) jigger brewed espresso"}]</t>
-        </is>
-      </c>
-      <c r="K79" s="1" t="inlineStr">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ cups 2% milk \n\n\n2 tablespoons any flavor of flavored syrup\n\n\n1 (1.5 fluid ounce) jigger brewed espresso'}]</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour milk into a steaming pitcher and heat to 145 degrees F to 165 degrees F (65 to 70 degrees C) using the steaming wand. Measure the flavored syrup into a large coffee mug. Brew espresso, then add to mug. Pour the steamed milk into the mug, using a spoon to hold back the foam. Spoon foam over the top."}]</t>
         </is>
       </c>
-      <c r="L79" s="1" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M79" s="1" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"261\nCalories\n\n\n6g \nFat\n\n\n41g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>1699653996-79</t>
         </is>
       </c>
-      <c r="B80" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C80" s="1" t="inlineStr">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D80" s="1" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E80" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F80" s="1" t="inlineStr">
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Yu3jDfv3sgScTIB1kHrjeWd9_zQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3603338-10979122aaa546afbd72314b2f14ed67.jpg"
@@ -5962,69 +5923,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G80" s="1" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229378/easy-pumpkin-spice-latte/</t>
         </is>
       </c>
-      <c r="H80" s="1" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Easy Pumpkin Spice Latte</t>
         </is>
       </c>
-      <c r="I80" s="1" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1 \n\n\nYield:\n1 cup"}]</t>
         </is>
       </c>
-      <c r="J80" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 tablespoons half-and-half\n\n\n2 teaspoons white sugar, or to taste\n\n\n¼ teaspoon pumpkin pie spice\n\n\n1 cup coffee\n\n\n1 tablespoon whipped cream topping, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="K80" s="1" t="inlineStr">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons half-and-half\n\n\n2 teaspoons white sugar, or to taste\n\n\n¼ teaspoon pumpkin pie spice\n\n\n1 cup coffee\n\n\n1 tablespoon whipped cream topping, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix half-and-half, sugar, and pumpkin pie spice together in a coffee mug. Pour coffee into mug; stir to blend."},{"recipe_directions":"Heat in microwave until hot, about 15 seconds. Top with whipped cream."}]</t>
         </is>
       </c>
-      <c r="L80" s="1" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M80" s="1" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"88\nCalories\n\n\n5g \nFat\n\n\n11g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="1" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>1699654000-80</t>
         </is>
       </c>
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C81" s="1" t="inlineStr">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D81" s="1" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E81" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F81" s="1" t="inlineStr">
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3NTZ_VfenUJU2dMzLlvKECIotgg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/733733-2c00e5d59d5d457fb37a0d8b66eaf6a9.jpg"
@@ -6037,69 +5994,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G81" s="1" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/146962/eggnog-latte/</t>
         </is>
       </c>
-      <c r="H81" s="1" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Eggnog Latte</t>
         </is>
       </c>
-      <c r="I81" s="1" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n4 mins\n\n\nCook Time:\n1 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="J81" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"⅓ cup 2% milk \n\n\n⅔ cup eggnog\n\n\n1 (1.5 fluid ounce) jigger brewed espresso\n\n\n1 pinch ground nutmeg"}]</t>
-        </is>
-      </c>
-      <c r="K81" s="1" t="inlineStr">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup 2% milk \n\n\n⅔ cup eggnog\n\n\n1 (1.5 fluid ounce) jigger brewed espresso\n\n\n1 pinch ground nutmeg'}]</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour milk and eggnog into a steaming pitcher and heat to between 145 degrees F to 165 degrees F (65 to 70 degrees C) using the steaming wand."},{"recipe_directions":"Brew a shot of espresso; pour into a mug. Pour steamed milk and eggnog into the mug, using a spoon to hold back the foam. Spoon foam over the top. Sprinkle nutmeg on top of foam."}]</t>
         </is>
       </c>
-      <c r="L81" s="1" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M81" s="1" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"275\nCalories\n\n\n15g \nFat\n\n\n27g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="1" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>1699654003-81</t>
         </is>
       </c>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="inlineStr">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D82" s="1" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E82" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F82" s="1" t="inlineStr">
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ki3AHygTYzq2jl5TilVJxNTmLqo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4485893-vanilla-latte-Paula-4x3-1-b5fbd014fb454dcf85579864cae60aa2.jpg"
@@ -6113,69 +6066,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G82" s="1" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/146963/vanilla-latte/</t>
         </is>
       </c>
-      <c r="H82" s="1" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Vanilla Latte</t>
         </is>
       </c>
-      <c r="I82" s="1" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Cook Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="J82" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ¼ cups 2% milk \n\n\n2 tablespoons vanilla flavored syrup\n\n\n1 (1.5 fluid ounce) jigger brewed espresso"}]</t>
-        </is>
-      </c>
-      <c r="K82" s="1" t="inlineStr">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ cups 2% milk \n\n\n2 tablespoons vanilla flavored syrup\n\n\n1 (1.5 fluid ounce) jigger brewed espresso'}]</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour milk into a steaming pitcher and heat to 145 to 165 degrees F (65 to 70 degrees C) using the steaming wand of an espresso machine."},{"recipe_directions":"Pour espresso over vanilla syrup in a large coffee mug. Pour steamed milk over espresso, using a spoon to hold back the foam. Spoon foam over top."}]</t>
         </is>
       </c>
-      <c r="L82" s="1" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="M82" s="1" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"261\nCalories\n\n\n6g \nFat\n\n\n41g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="1" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>1699654006-82</t>
         </is>
       </c>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
-        </is>
-      </c>
-      <c r="C83" s="1" t="inlineStr">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/134/drinks/coffee/</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>Lattes</t>
         </is>
       </c>
-      <c r="D83" s="1" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/16809/drinks/coffee/lattes/</t>
         </is>
       </c>
-      <c r="E83" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F83" s="1" t="inlineStr">
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hvgLo3BWipVW7VXM7coMerCHGbY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/260904_HomemadeCaramelLatte_ddmfs_3x4_3967-de97df91d502475982fe4ae9299bcf3b.jpg"
@@ -6189,42 +6138,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G83" s="1" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260904/homemade-caramel-latte/</t>
         </is>
       </c>
-      <c r="H83" s="1" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Homemade Caramel Latte</t>
         </is>
       </c>
-      <c r="I83" s="1" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="J83" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ cup milk\n\n\n1 tablespoon brown sugar\n\n\n1 tablespoon sugar-free caramel topping\n\n\n1 tablespoon caramel sauce\n\n\n¼ teaspoon vanilla extract\n\n\n1 cup coffee"}]</t>
-        </is>
-      </c>
-      <c r="K83" s="1" t="inlineStr">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup milk\n\n\n1 tablespoon brown sugar\n\n\n1 tablespoon sugar-free caramel topping\n\n\n1 tablespoon caramel sauce\n\n\n¼ teaspoon vanilla extract\n\n\n1 cup coffee'}]</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Dotdash Meredith Food Studios"},{"recipe_directions":"Combine milk and brown sugar in a saucepan over medium heat. Heat until frothy and close to simmering, about 3 minutes."},{"recipe_directions":"Dotdash Meredith Food Studios"},{"recipe_directions":"Reduce heat to low; whisk in caramel sauce and vanilla."},{"recipe_directions":"Dotdash Meredith Food Studios"},{"recipe_directions":"Dotdash Meredith Food Studios"},{"recipe_directions":"Stir in coffee."},{"recipe_directions":"Dotdash Meredith Food Studios"}]</t>
         </is>
       </c>
-      <c r="L83" s="1" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Drinks Recipes"},{"recipe_tags":"Coffee Drinks Recipes"},{"recipe_tags":"Latte Recipes"}]</t>
         </is>
       </c>
-      <c r="M83" s="1" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"218\nCalories\n\n\n3g \nFat\n\n\n46g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>